--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1404.875704966254</v>
+        <v>-10306.49696537712</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20150682.29641478</v>
+        <v>20159859.38919201</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1804854.509171179</v>
+        <v>1802596.150354485</v>
       </c>
     </row>
     <row r="11">
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>10.09069110280004</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.579696329610442</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>23.47611504059521</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>37.52930446208636</v>
+        <v>22.96512026740566</v>
       </c>
       <c r="T11" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="U11" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6649401485031953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="H12" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.58206201150026</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.808809210202206</v>
+        <v>5.808809210202192</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>27.2470021600035</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F14" t="n">
-        <v>23.47611504059521</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="G14" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.579696329610442</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>33.0558113702057</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1697,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>37.52930446208636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.58206201150026</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6649401485031913</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.808809210202206</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>19.34765475876278</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>56.71570711620766</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>53.48683192388535</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>51.60910058832091</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.408831460365228</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>31.42527100086661</v>
       </c>
       <c r="S18" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="T18" t="n">
-        <v>58.59343845177213</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>58.59343845177213</v>
+        <v>20.18382958745429</v>
       </c>
       <c r="V18" t="n">
-        <v>10.77499812708905</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>7.935091547195987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.935091547195966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>58.59343845177217</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>58.59343845177217</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="G20" t="n">
-        <v>58.59343845177217</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>51.60910058832089</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.872130654231427</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>35.17003094995921</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>13.56693898413028</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>58.59343845177217</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>58.59343845177217</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>17.18497293215385</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>58.59343845177217</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>25.01529619580182</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>9.408831460365221</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>42.20026912795569</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>7.935091547195987</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.489106094177907</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>3.445985453018082</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59.47267904092698</v>
+        <v>59.472679040927</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>58.51046826933155</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>59.472679040927</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>59.472679040927</v>
       </c>
       <c r="I23" t="n">
-        <v>53.34574647084391</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.47267904092698</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>52.38353569924848</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.47267904092698</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,22 +2405,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>59.47267904092698</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>59.472679040927</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>24.9478811906359</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>9.2238395334507</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>52.38353569924848</v>
+        <v>59.472679040927</v>
       </c>
       <c r="U24" t="n">
-        <v>59.47267904092698</v>
+        <v>59.472679040927</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>18.21181497516187</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>8.672693916369694</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>8.672693916369735</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.47267904092698</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>59.47267904092698</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>59.47267904092698</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>59.472679040927</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>52.38353569924848</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>59.472679040927</v>
       </c>
       <c r="W26" t="n">
-        <v>52.38353569924848</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>59.472679040927</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>59.472679040927</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>9.2238395334507</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>59.47267904092698</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>59.47267904092698</v>
+        <v>59.472679040927</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>43.15969616579777</v>
       </c>
       <c r="V27" t="n">
-        <v>59.47267904092698</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>52.38353569924848</v>
+        <v>59.472679040927</v>
       </c>
     </row>
     <row r="28">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>8.672693916369735</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>8.672693916369736</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>59.47267904092699</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>52.38353569924846</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>59.47267904092699</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>59.47267904092699</v>
+        <v>52.38353569924853</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>59.47267904092699</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>9.2238395334507</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>31.30370070620053</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>59.47267904092699</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="T30" t="n">
-        <v>21.07983499304792</v>
+        <v>43.15969616579783</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>59.47267904092699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>8.672693916369736</v>
+        <v>8.672693916369735</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>53.34574647084391</v>
+        <v>53.3457464708439</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>59.472679040927</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>58.51046826933167</v>
       </c>
       <c r="U32" t="n">
-        <v>58.51046826933156</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="W32" t="n">
-        <v>59.472679040927</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>59.472679040927</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>59.472679040927</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="U33" t="n">
-        <v>59.472679040927</v>
+        <v>52.38353569924853</v>
       </c>
       <c r="V33" t="n">
-        <v>52.38353569924848</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>8.672693916369756</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>8.672693916369735</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>59.472679040927</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="T35" t="n">
-        <v>59.472679040927</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>59.472679040927</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="X35" t="n">
-        <v>52.38353569924847</v>
+        <v>52.38353569924852</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>52.38353569924847</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.30370070620053</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>59.472679040927</v>
+        <v>21.07983499304797</v>
       </c>
       <c r="V36" t="n">
-        <v>59.472679040927</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="W36" t="n">
-        <v>59.472679040927</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>8.672693916369735</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>8.672693916369754</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3514,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>58.51046826933165</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>49.82200621148036</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>53.3457464708439</v>
       </c>
       <c r="J38" t="n">
-        <v>2.561529487768155</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="T38" t="n">
-        <v>59.47267904092701</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>59.47267904092701</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="W38" t="n">
-        <v>59.47267904092701</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>52.38353569924851</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3641,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>59.47267904092701</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>59.47267904092701</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>52.38353569924852</v>
       </c>
       <c r="Y39" t="n">
-        <v>59.47267904092701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>8.672693916369754</v>
       </c>
       <c r="V40" t="n">
-        <v>8.672693916369735</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>17.44338501878195</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,19 +3751,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>49.82200621148037</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>59.47267904092702</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>59.47267904092702</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.561529487768155</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>34.94015068046658</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="W41" t="n">
-        <v>59.47267904092702</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>52.3835356992485</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>59.47267904092702</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="E42" t="n">
-        <v>59.47267904092702</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="F42" t="n">
-        <v>59.47267904092702</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>18.21181497516192</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>24.9478811906359</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9.2238395334507</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>8.672693916369735</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>8.672693916369754</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67.546882812823</v>
+        <v>17.44338501878194</v>
       </c>
       <c r="C44" t="n">
-        <v>41.81563634889181</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>67.546882812823</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.18221398197448</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>33.04432686349118</v>
+        <v>34.94015068046658</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.698210118769744</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>67.546882812823</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>67.546882812823</v>
+        <v>52.3835356992485</v>
       </c>
       <c r="W45" t="n">
-        <v>67.546882812823</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="X45" t="n">
-        <v>51.79708426276475</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.672693916369754</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.75570461591127</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.002344356966909</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="C11" t="n">
-        <v>3.002344356966909</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="D11" t="n">
-        <v>3.002344356966909</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="E11" t="n">
-        <v>3.002344356966909</v>
+        <v>51.10334997806434</v>
       </c>
       <c r="F11" t="n">
-        <v>3.002344356966909</v>
+        <v>13.19496163252251</v>
       </c>
       <c r="G11" t="n">
-        <v>3.002344356966909</v>
+        <v>13.19496163252251</v>
       </c>
       <c r="H11" t="n">
-        <v>3.002344356966909</v>
+        <v>13.19496163252251</v>
       </c>
       <c r="I11" t="n">
-        <v>3.002344356966909</v>
+        <v>13.19496163252251</v>
       </c>
       <c r="J11" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K11" t="n">
-        <v>8.579347327526897</v>
+        <v>8.579347327526888</v>
       </c>
       <c r="L11" t="n">
-        <v>30.4433262173085</v>
+        <v>30.44332621730856</v>
       </c>
       <c r="M11" t="n">
-        <v>67.59733763477396</v>
+        <v>67.59733763477411</v>
       </c>
       <c r="N11" t="n">
-        <v>104.7513490522395</v>
+        <v>104.7513490522396</v>
       </c>
       <c r="O11" t="n">
-        <v>136.7661938505102</v>
+        <v>136.7661938505104</v>
       </c>
       <c r="P11" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.440756909345</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R11" t="n">
-        <v>116.7275093935923</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S11" t="n">
-        <v>78.81912104805048</v>
+        <v>126.920126669148</v>
       </c>
       <c r="T11" t="n">
-        <v>40.91073270250869</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="U11" t="n">
-        <v>3.002344356966909</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="V11" t="n">
-        <v>3.002344356966909</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="W11" t="n">
-        <v>3.002344356966909</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="X11" t="n">
-        <v>3.002344356966909</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.002344356966909</v>
+        <v>89.01173832360618</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>144.2497337976361</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="C12" t="n">
-        <v>144.2497337976361</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="D12" t="n">
-        <v>144.2497337976361</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="E12" t="n">
-        <v>143.5780770819763</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="F12" t="n">
-        <v>105.6696887364346</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="G12" t="n">
-        <v>67.76130039089279</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H12" t="n">
-        <v>29.85291204535101</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I12" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J12" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K12" t="n">
-        <v>11.45991954906469</v>
+        <v>11.45991954906473</v>
       </c>
       <c r="L12" t="n">
-        <v>41.59280229228313</v>
+        <v>41.5928022922832</v>
       </c>
       <c r="M12" t="n">
-        <v>78.74681370974864</v>
+        <v>76.24316765922515</v>
       </c>
       <c r="N12" t="n">
-        <v>113.3971790766905</v>
+        <v>113.3971790766907</v>
       </c>
       <c r="O12" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="P12" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q12" t="n">
-        <v>144.2497337976361</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="R12" t="n">
-        <v>144.2497337976361</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="S12" t="n">
-        <v>144.2497337976361</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="T12" t="n">
-        <v>144.2497337976361</v>
+        <v>106.3413454520945</v>
       </c>
       <c r="U12" t="n">
-        <v>144.2497337976361</v>
+        <v>106.3413454520945</v>
       </c>
       <c r="V12" t="n">
-        <v>144.2497337976361</v>
+        <v>68.43295710655269</v>
       </c>
       <c r="W12" t="n">
-        <v>144.2497337976361</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="X12" t="n">
-        <v>144.2497337976361</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="Y12" t="n">
-        <v>144.2497337976361</v>
+        <v>40.91073270250875</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="C13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="D13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="E13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="F13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="L13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="M13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="N13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="O13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="P13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="R13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="S13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="T13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="U13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="V13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="W13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="X13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>140.440756909345</v>
+        <v>78.81912104805059</v>
       </c>
       <c r="C14" t="n">
-        <v>140.440756909345</v>
+        <v>78.81912104805059</v>
       </c>
       <c r="D14" t="n">
-        <v>140.440756909345</v>
+        <v>78.81912104805059</v>
       </c>
       <c r="E14" t="n">
-        <v>140.440756909345</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="F14" t="n">
-        <v>116.7275093935923</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G14" t="n">
-        <v>78.81912104805048</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H14" t="n">
-        <v>40.91073270250869</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I14" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J14" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K14" t="n">
-        <v>8.579347327526854</v>
+        <v>8.579347327526886</v>
       </c>
       <c r="L14" t="n">
-        <v>30.44332621730846</v>
+        <v>30.4433262173086</v>
       </c>
       <c r="M14" t="n">
-        <v>67.59733763477396</v>
+        <v>67.59733763477411</v>
       </c>
       <c r="N14" t="n">
-        <v>104.7513490522395</v>
+        <v>104.7513490522396</v>
       </c>
       <c r="O14" t="n">
-        <v>136.7661938505102</v>
+        <v>136.7661938505104</v>
       </c>
       <c r="P14" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.440756909345</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R14" t="n">
-        <v>140.440756909345</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S14" t="n">
-        <v>140.440756909345</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="T14" t="n">
-        <v>140.440756909345</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="U14" t="n">
-        <v>140.440756909345</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="V14" t="n">
-        <v>140.440756909345</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="W14" t="n">
-        <v>140.440756909345</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="X14" t="n">
-        <v>140.440756909345</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="Y14" t="n">
-        <v>140.440756909345</v>
+        <v>116.7275093935924</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>144.2497337976361</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="C15" t="n">
-        <v>144.2497337976361</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="D15" t="n">
-        <v>144.2497337976361</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="E15" t="n">
-        <v>144.2497337976361</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="F15" t="n">
-        <v>106.3413454520944</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="G15" t="n">
-        <v>68.43295710655258</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="H15" t="n">
-        <v>30.5245687610108</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="I15" t="n">
-        <v>3.674001072626698</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="J15" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K15" t="n">
-        <v>11.45991954906469</v>
+        <v>11.45991954906473</v>
       </c>
       <c r="L15" t="n">
-        <v>41.59280229228313</v>
+        <v>41.5928022922832</v>
       </c>
       <c r="M15" t="n">
-        <v>78.74681370974864</v>
+        <v>78.74681370974875</v>
       </c>
       <c r="N15" t="n">
-        <v>91.75600249516215</v>
+        <v>113.3971790766907</v>
       </c>
       <c r="O15" t="n">
-        <v>128.4760412668171</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="P15" t="n">
-        <v>150.1172178483454</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q15" t="n">
-        <v>144.2497337976361</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R15" t="n">
-        <v>144.2497337976361</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S15" t="n">
-        <v>144.2497337976361</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="T15" t="n">
-        <v>144.2497337976361</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="U15" t="n">
-        <v>144.2497337976361</v>
+        <v>112.2088295028038</v>
       </c>
       <c r="V15" t="n">
-        <v>144.2497337976361</v>
+        <v>74.30044115726199</v>
       </c>
       <c r="W15" t="n">
-        <v>144.2497337976361</v>
+        <v>36.39205281172015</v>
       </c>
       <c r="X15" t="n">
-        <v>144.2497337976361</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="Y15" t="n">
-        <v>144.2497337976361</v>
+        <v>16.84896719680825</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="C16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="D16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="E16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="F16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="L16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="M16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="N16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="O16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="P16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="R16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="S16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="T16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="U16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="V16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="W16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="X16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.002344356966909</v>
+        <v>3.002344356966913</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>234.3737538070885</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="C17" t="n">
-        <v>234.3737538070885</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="D17" t="n">
-        <v>234.3737538070885</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="E17" t="n">
-        <v>234.3737538070885</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="F17" t="n">
-        <v>177.0851607604141</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G17" t="n">
-        <v>117.8998693949877</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H17" t="n">
-        <v>58.71457802956132</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I17" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J17" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K17" t="n">
-        <v>20.97504143141155</v>
+        <v>20.97504143141154</v>
       </c>
       <c r="L17" t="n">
-        <v>56.12642129272577</v>
+        <v>56.12642129272579</v>
       </c>
       <c r="M17" t="n">
         <v>108.0652264990963</v>
@@ -5533,34 +5533,34 @@
         <v>208.9146559283693</v>
       </c>
       <c r="P17" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q17" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R17" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S17" t="n">
-        <v>234.3737538070885</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T17" t="n">
-        <v>234.3737538070885</v>
+        <v>116.0031710762358</v>
       </c>
       <c r="U17" t="n">
-        <v>234.3737538070885</v>
+        <v>56.81787971080936</v>
       </c>
       <c r="V17" t="n">
-        <v>234.3737538070885</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="W17" t="n">
-        <v>234.3737538070885</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="X17" t="n">
-        <v>234.3737538070885</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="Y17" t="n">
-        <v>234.3737538070885</v>
+        <v>4.687475076141772</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.19134523812685</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="C18" t="n">
-        <v>14.19134523812685</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="D18" t="n">
-        <v>14.19134523812685</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="E18" t="n">
-        <v>14.19134523812685</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="F18" t="n">
-        <v>14.19134523812685</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="G18" t="n">
-        <v>14.19134523812685</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H18" t="n">
-        <v>14.19134523812685</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I18" t="n">
-        <v>14.19134523812685</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J18" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K18" t="n">
-        <v>20.41979942316996</v>
+        <v>20.41979942316997</v>
       </c>
       <c r="L18" t="n">
-        <v>60.33448016499854</v>
+        <v>60.33448016499857</v>
       </c>
       <c r="M18" t="n">
         <v>114.7525615466167</v>
@@ -5612,10 +5612,10 @@
         <v>204.1298114188035</v>
       </c>
       <c r="P18" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q18" t="n">
-        <v>234.3737538070885</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R18" t="n">
         <v>202.6310558264152</v>
@@ -5624,22 +5624,22 @@
         <v>143.4457644609888</v>
       </c>
       <c r="T18" t="n">
-        <v>84.26047309556239</v>
+        <v>143.4457644609888</v>
       </c>
       <c r="U18" t="n">
-        <v>25.07518173013599</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="V18" t="n">
-        <v>14.19134523812685</v>
+        <v>123.0580578069946</v>
       </c>
       <c r="W18" t="n">
-        <v>14.19134523812685</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="X18" t="n">
-        <v>14.19134523812685</v>
+        <v>63.87276644156818</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.19134523812685</v>
+        <v>63.87276644156818</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="C19" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="D19" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="E19" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="F19" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="G19" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H19" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I19" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J19" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K19" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="L19" t="n">
-        <v>5.409059735872657</v>
+        <v>5.409059735872666</v>
       </c>
       <c r="M19" t="n">
-        <v>7.489474206666307</v>
+        <v>7.489474206666323</v>
       </c>
       <c r="N19" t="n">
-        <v>12.7027190632084</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="O19" t="n">
-        <v>12.7027190632084</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="P19" t="n">
-        <v>12.7027190632084</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.7027190632084</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="R19" t="n">
-        <v>12.7027190632084</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="S19" t="n">
-        <v>12.7027190632084</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="T19" t="n">
-        <v>12.7027190632084</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="U19" t="n">
-        <v>12.7027190632084</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="V19" t="n">
-        <v>12.7027190632084</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="W19" t="n">
-        <v>12.7027190632084</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="X19" t="n">
-        <v>12.7027190632084</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.68747507614177</v>
+        <v>4.687475076141772</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>234.3737538070887</v>
+        <v>66.77390851654943</v>
       </c>
       <c r="C20" t="n">
-        <v>234.3737538070887</v>
+        <v>66.77390851654943</v>
       </c>
       <c r="D20" t="n">
-        <v>234.3737538070887</v>
+        <v>66.77390851654943</v>
       </c>
       <c r="E20" t="n">
-        <v>175.1884624416622</v>
+        <v>66.77390851654943</v>
       </c>
       <c r="F20" t="n">
-        <v>116.0031710762358</v>
+        <v>7.588617151123011</v>
       </c>
       <c r="G20" t="n">
-        <v>56.81787971080934</v>
+        <v>7.588617151123011</v>
       </c>
       <c r="H20" t="n">
-        <v>56.81787971080934</v>
+        <v>7.588617151123011</v>
       </c>
       <c r="I20" t="n">
-        <v>4.687475076141774</v>
+        <v>7.588617151123011</v>
       </c>
       <c r="J20" t="n">
-        <v>4.687475076141774</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K20" t="n">
-        <v>20.97504143141153</v>
+        <v>20.97504143141154</v>
       </c>
       <c r="L20" t="n">
-        <v>56.1264212927258</v>
+        <v>56.12642129272579</v>
       </c>
       <c r="M20" t="n">
-        <v>108.0652264990964</v>
+        <v>108.0652264990963</v>
       </c>
       <c r="N20" t="n">
-        <v>162.7130482674824</v>
+        <v>162.7130482674823</v>
       </c>
       <c r="O20" t="n">
-        <v>208.9146559283694</v>
+        <v>208.9146559283693</v>
       </c>
       <c r="P20" t="n">
-        <v>234.3737538070887</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q20" t="n">
-        <v>234.3737538070887</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R20" t="n">
-        <v>234.3737538070887</v>
+        <v>198.848470019251</v>
       </c>
       <c r="S20" t="n">
-        <v>234.3737538070887</v>
+        <v>198.848470019251</v>
       </c>
       <c r="T20" t="n">
-        <v>234.3737538070887</v>
+        <v>198.848470019251</v>
       </c>
       <c r="U20" t="n">
-        <v>234.3737538070887</v>
+        <v>185.1444912474022</v>
       </c>
       <c r="V20" t="n">
-        <v>234.3737538070887</v>
+        <v>125.9591998819758</v>
       </c>
       <c r="W20" t="n">
-        <v>234.3737538070887</v>
+        <v>66.77390851654943</v>
       </c>
       <c r="X20" t="n">
-        <v>234.3737538070887</v>
+        <v>66.77390851654943</v>
       </c>
       <c r="Y20" t="n">
-        <v>234.3737538070887</v>
+        <v>66.77390851654943</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>234.3737538070887</v>
+        <v>73.37663660355325</v>
       </c>
       <c r="C21" t="n">
-        <v>234.3737538070887</v>
+        <v>73.37663660355325</v>
       </c>
       <c r="D21" t="n">
-        <v>175.1884624416622</v>
+        <v>73.37663660355325</v>
       </c>
       <c r="E21" t="n">
-        <v>116.0031710762358</v>
+        <v>73.37663660355325</v>
       </c>
       <c r="F21" t="n">
-        <v>98.64461255890866</v>
+        <v>73.37663660355325</v>
       </c>
       <c r="G21" t="n">
-        <v>39.45932119348222</v>
+        <v>14.19134523812684</v>
       </c>
       <c r="H21" t="n">
-        <v>39.45932119348222</v>
+        <v>14.19134523812684</v>
       </c>
       <c r="I21" t="n">
-        <v>14.19134523812685</v>
+        <v>14.19134523812684</v>
       </c>
       <c r="J21" t="n">
-        <v>4.687475076141774</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K21" t="n">
         <v>20.41979942316997</v>
       </c>
       <c r="L21" t="n">
-        <v>60.33448016499857</v>
+        <v>44.26540735723766</v>
       </c>
       <c r="M21" t="n">
-        <v>114.7525615466167</v>
+        <v>98.68348873885583</v>
       </c>
       <c r="N21" t="n">
-        <v>156.6909928061104</v>
+        <v>156.6909928061102</v>
       </c>
       <c r="O21" t="n">
-        <v>204.1298114188037</v>
+        <v>204.1298114188035</v>
       </c>
       <c r="P21" t="n">
-        <v>234.3737538070887</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="Q21" t="n">
-        <v>234.3737538070887</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="R21" t="n">
-        <v>234.3737538070887</v>
+        <v>234.3737538070886</v>
       </c>
       <c r="S21" t="n">
-        <v>234.3737538070887</v>
+        <v>175.1884624416622</v>
       </c>
       <c r="T21" t="n">
-        <v>234.3737538070887</v>
+        <v>132.5619279689797</v>
       </c>
       <c r="U21" t="n">
-        <v>234.3737538070887</v>
+        <v>132.5619279689797</v>
       </c>
       <c r="V21" t="n">
-        <v>234.3737538070887</v>
+        <v>73.37663660355325</v>
       </c>
       <c r="W21" t="n">
-        <v>234.3737538070887</v>
+        <v>73.37663660355325</v>
       </c>
       <c r="X21" t="n">
-        <v>234.3737538070887</v>
+        <v>73.37663660355325</v>
       </c>
       <c r="Y21" t="n">
-        <v>234.3737538070887</v>
+        <v>73.37663660355325</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="C22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="D22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="E22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="F22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="G22" t="n">
-        <v>9.221925676321478</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="H22" t="n">
-        <v>9.221925676321478</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="I22" t="n">
-        <v>9.221925676321478</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="J22" t="n">
-        <v>9.221925676321478</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="K22" t="n">
-        <v>4.687475076141774</v>
+        <v>4.687475076141772</v>
       </c>
       <c r="L22" t="n">
-        <v>5.409059735872668</v>
+        <v>5.409059735872666</v>
       </c>
       <c r="M22" t="n">
-        <v>7.489474206666324</v>
+        <v>7.489474206666323</v>
       </c>
       <c r="N22" t="n">
         <v>12.70271906320843</v>
       </c>
       <c r="O22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="P22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="R22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="S22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="T22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="U22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="V22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="W22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="X22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.221925676321478</v>
+        <v>12.70271906320843</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>117.7438898184009</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="C23" t="n">
-        <v>117.7438898184009</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="D23" t="n">
-        <v>58.642406718066</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="E23" t="n">
-        <v>58.642406718066</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="F23" t="n">
-        <v>58.642406718066</v>
+        <v>64.83122749592769</v>
       </c>
       <c r="G23" t="n">
-        <v>58.642406718066</v>
+        <v>64.83122749592769</v>
       </c>
       <c r="H23" t="n">
-        <v>58.642406718066</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="I23" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="J23" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="K23" t="n">
-        <v>21.5062362056912</v>
+        <v>21.50623620569125</v>
       </c>
       <c r="L23" t="n">
-        <v>57.22934810006495</v>
+        <v>57.22934810006505</v>
       </c>
       <c r="M23" t="n">
-        <v>109.8043153541833</v>
+        <v>109.8043153541834</v>
       </c>
       <c r="N23" t="n">
-        <v>165.0985929373366</v>
+        <v>165.0985929373368</v>
       </c>
       <c r="O23" t="n">
-        <v>211.9106304927798</v>
+        <v>211.9106304927799</v>
       </c>
       <c r="P23" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="R23" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="S23" t="n">
-        <v>177.8173029910544</v>
+        <v>237.890716163708</v>
       </c>
       <c r="T23" t="n">
-        <v>177.8173029910544</v>
+        <v>237.890716163708</v>
       </c>
       <c r="U23" t="n">
-        <v>177.8173029910544</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="V23" t="n">
-        <v>177.8173029910544</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="W23" t="n">
-        <v>177.8173029910544</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="X23" t="n">
-        <v>177.8173029910544</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="Y23" t="n">
-        <v>177.8173029910544</v>
+        <v>184.9780538412348</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>64.83122749592768</v>
+        <v>99.3481171162172</v>
       </c>
       <c r="C24" t="n">
-        <v>64.83122749592768</v>
+        <v>99.3481171162172</v>
       </c>
       <c r="D24" t="n">
-        <v>64.83122749592768</v>
+        <v>99.3481171162172</v>
       </c>
       <c r="E24" t="n">
-        <v>4.757814323274159</v>
+        <v>99.3481171162172</v>
       </c>
       <c r="F24" t="n">
-        <v>4.757814323274159</v>
+        <v>99.3481171162172</v>
       </c>
       <c r="G24" t="n">
-        <v>4.757814323274159</v>
+        <v>39.27470394356365</v>
       </c>
       <c r="H24" t="n">
-        <v>4.757814323274159</v>
+        <v>39.27470394356365</v>
       </c>
       <c r="I24" t="n">
-        <v>4.757814323274159</v>
+        <v>14.07482395302234</v>
       </c>
       <c r="J24" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="K24" t="n">
-        <v>20.80315753179808</v>
+        <v>5.253816616825112</v>
       </c>
       <c r="L24" t="n">
-        <v>61.13873076183445</v>
+        <v>45.58938984686151</v>
       </c>
       <c r="M24" t="n">
-        <v>116.0479738249749</v>
+        <v>100.498632910002</v>
       </c>
       <c r="N24" t="n">
-        <v>159.1291423774312</v>
+        <v>159.3765851605198</v>
       </c>
       <c r="O24" t="n">
-        <v>207.0291700560332</v>
+        <v>207.2766128391218</v>
       </c>
       <c r="P24" t="n">
-        <v>237.6432733806194</v>
+        <v>237.890716163708</v>
       </c>
       <c r="Q24" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="R24" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="S24" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="T24" t="n">
-        <v>184.9780538412347</v>
+        <v>177.8173029910544</v>
       </c>
       <c r="U24" t="n">
-        <v>124.9046406685812</v>
+        <v>117.7438898184009</v>
       </c>
       <c r="V24" t="n">
-        <v>124.9046406685812</v>
+        <v>99.3481171162172</v>
       </c>
       <c r="W24" t="n">
-        <v>124.9046406685812</v>
+        <v>99.3481171162172</v>
       </c>
       <c r="X24" t="n">
-        <v>124.9046406685812</v>
+        <v>99.3481171162172</v>
       </c>
       <c r="Y24" t="n">
-        <v>124.9046406685812</v>
+        <v>99.3481171162172</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="C25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="D25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="E25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="F25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="G25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="H25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="I25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="J25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="K25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="L25" t="n">
-        <v>5.721013004350106</v>
+        <v>5.721013004350121</v>
       </c>
       <c r="M25" t="n">
-        <v>8.056175583866569</v>
+        <v>8.056175583866597</v>
       </c>
       <c r="N25" t="n">
-        <v>13.51811120849607</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="O25" t="n">
-        <v>13.51811120849607</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="P25" t="n">
-        <v>13.51811120849607</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.51811120849607</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="R25" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="S25" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="T25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="U25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="V25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="W25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="X25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>124.9046406685812</v>
+        <v>64.83122749592769</v>
       </c>
       <c r="C26" t="n">
-        <v>64.83122749592768</v>
+        <v>64.83122749592769</v>
       </c>
       <c r="D26" t="n">
-        <v>4.757814323274159</v>
+        <v>64.83122749592769</v>
       </c>
       <c r="E26" t="n">
-        <v>4.757814323274159</v>
+        <v>64.83122749592769</v>
       </c>
       <c r="F26" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="G26" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="H26" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="I26" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="J26" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="K26" t="n">
-        <v>21.50623620569121</v>
+        <v>21.50623620569124</v>
       </c>
       <c r="L26" t="n">
-        <v>57.22934810006498</v>
+        <v>57.22934810006504</v>
       </c>
       <c r="M26" t="n">
         <v>109.8043153541834</v>
@@ -6241,37 +6241,37 @@
         <v>165.0985929373367</v>
       </c>
       <c r="O26" t="n">
-        <v>211.9106304927798</v>
+        <v>211.9106304927799</v>
       </c>
       <c r="P26" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="Q26" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="R26" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="S26" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="T26" t="n">
-        <v>237.8907161637079</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="U26" t="n">
-        <v>237.8907161637079</v>
+        <v>184.9780538412348</v>
       </c>
       <c r="V26" t="n">
-        <v>237.8907161637079</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="W26" t="n">
-        <v>184.9780538412347</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="X26" t="n">
-        <v>184.9780538412347</v>
+        <v>124.9046406685812</v>
       </c>
       <c r="Y26" t="n">
-        <v>184.9780538412347</v>
+        <v>64.83122749592769</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.757814323274159</v>
+        <v>74.14823712567588</v>
       </c>
       <c r="C27" t="n">
-        <v>4.757814323274159</v>
+        <v>74.14823712567588</v>
       </c>
       <c r="D27" t="n">
-        <v>4.757814323274159</v>
+        <v>74.14823712567588</v>
       </c>
       <c r="E27" t="n">
-        <v>4.757814323274159</v>
+        <v>74.14823712567588</v>
       </c>
       <c r="F27" t="n">
-        <v>4.757814323274159</v>
+        <v>74.14823712567588</v>
       </c>
       <c r="G27" t="n">
-        <v>4.757814323274159</v>
+        <v>14.07482395302234</v>
       </c>
       <c r="H27" t="n">
-        <v>4.757814323274159</v>
+        <v>14.07482395302234</v>
       </c>
       <c r="I27" t="n">
-        <v>4.757814323274159</v>
+        <v>14.07482395302234</v>
       </c>
       <c r="J27" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="K27" t="n">
         <v>20.80315753179811</v>
       </c>
       <c r="L27" t="n">
-        <v>61.1387307618345</v>
+        <v>61.13873076183451</v>
       </c>
       <c r="M27" t="n">
-        <v>100.498632910002</v>
+        <v>116.047973824975</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3765851605197</v>
+        <v>174.9259260754928</v>
       </c>
       <c r="O27" t="n">
-        <v>207.2766128391217</v>
+        <v>207.2766128391218</v>
       </c>
       <c r="P27" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="Q27" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="R27" t="n">
-        <v>237.8907161637079</v>
+        <v>237.890716163708</v>
       </c>
       <c r="S27" t="n">
+        <v>237.890716163708</v>
+      </c>
+      <c r="T27" t="n">
         <v>177.8173029910544</v>
       </c>
-      <c r="T27" t="n">
-        <v>117.7438898184009</v>
-      </c>
       <c r="U27" t="n">
-        <v>117.7438898184009</v>
+        <v>134.2216502983294</v>
       </c>
       <c r="V27" t="n">
-        <v>57.67047664574738</v>
+        <v>134.2216502983294</v>
       </c>
       <c r="W27" t="n">
-        <v>57.67047664574738</v>
+        <v>134.2216502983294</v>
       </c>
       <c r="X27" t="n">
-        <v>57.67047664574738</v>
+        <v>134.2216502983294</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.757814323274159</v>
+        <v>74.14823712567588</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="C28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="D28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="E28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="F28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="G28" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="H28" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="I28" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="J28" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="K28" t="n">
-        <v>4.757814323274159</v>
+        <v>4.75781432327416</v>
       </c>
       <c r="L28" t="n">
-        <v>5.72101300435012</v>
+        <v>5.721013004350121</v>
       </c>
       <c r="M28" t="n">
         <v>8.056175583866597</v>
@@ -6402,34 +6402,34 @@
         <v>13.51811120849612</v>
       </c>
       <c r="P28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="R28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="S28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="T28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="U28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="V28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="W28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="X28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.757814323274159</v>
+        <v>13.51811120849612</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>177.8173029910544</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="C29" t="n">
-        <v>177.8173029910544</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="D29" t="n">
-        <v>177.8173029910544</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="E29" t="n">
-        <v>117.7438898184009</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="F29" t="n">
-        <v>64.83122749592769</v>
+        <v>64.83122749592775</v>
       </c>
       <c r="G29" t="n">
-        <v>64.83122749592769</v>
+        <v>64.83122749592775</v>
       </c>
       <c r="H29" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="I29" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="J29" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="K29" t="n">
-        <v>21.50623620569121</v>
+        <v>21.50623620569124</v>
       </c>
       <c r="L29" t="n">
-        <v>57.22934810006498</v>
+        <v>57.22934810006501</v>
       </c>
       <c r="M29" t="n">
         <v>109.8043153541834</v>
@@ -6478,37 +6478,37 @@
         <v>165.0985929373367</v>
       </c>
       <c r="O29" t="n">
-        <v>211.9106304927799</v>
+        <v>211.91063049278</v>
       </c>
       <c r="P29" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="Q29" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="R29" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="S29" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="T29" t="n">
-        <v>177.8173029910544</v>
+        <v>184.9780538412349</v>
       </c>
       <c r="U29" t="n">
-        <v>177.8173029910544</v>
+        <v>184.9780538412349</v>
       </c>
       <c r="V29" t="n">
-        <v>177.8173029910544</v>
+        <v>184.9780538412349</v>
       </c>
       <c r="W29" t="n">
-        <v>177.8173029910544</v>
+        <v>184.9780538412349</v>
       </c>
       <c r="X29" t="n">
-        <v>177.8173029910544</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="Y29" t="n">
-        <v>177.8173029910544</v>
+        <v>124.9046406685813</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>64.83122749592769</v>
+        <v>74.14823712567593</v>
       </c>
       <c r="C30" t="n">
-        <v>64.83122749592769</v>
+        <v>74.14823712567593</v>
       </c>
       <c r="D30" t="n">
-        <v>64.83122749592769</v>
+        <v>74.14823712567593</v>
       </c>
       <c r="E30" t="n">
-        <v>64.83122749592769</v>
+        <v>74.14823712567593</v>
       </c>
       <c r="F30" t="n">
-        <v>64.83122749592769</v>
+        <v>74.14823712567593</v>
       </c>
       <c r="G30" t="n">
-        <v>4.757814323274159</v>
+        <v>14.07482395302235</v>
       </c>
       <c r="H30" t="n">
-        <v>4.757814323274159</v>
+        <v>14.07482395302235</v>
       </c>
       <c r="I30" t="n">
-        <v>4.757814323274159</v>
+        <v>14.07482395302235</v>
       </c>
       <c r="J30" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="K30" t="n">
-        <v>20.80315753179811</v>
+        <v>5.253816616825226</v>
       </c>
       <c r="L30" t="n">
-        <v>61.1387307618345</v>
+        <v>45.58938984686162</v>
       </c>
       <c r="M30" t="n">
-        <v>116.047973824975</v>
+        <v>100.4986329100022</v>
       </c>
       <c r="N30" t="n">
-        <v>159.1291423774312</v>
+        <v>159.3765851605199</v>
       </c>
       <c r="O30" t="n">
-        <v>207.0291700560331</v>
+        <v>207.2766128391219</v>
       </c>
       <c r="P30" t="n">
-        <v>237.6432733806194</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="Q30" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="R30" t="n">
-        <v>206.2708164604751</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="S30" t="n">
-        <v>146.1974032878215</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="T30" t="n">
-        <v>124.9046406685812</v>
+        <v>134.2216502983295</v>
       </c>
       <c r="U30" t="n">
-        <v>124.9046406685812</v>
+        <v>74.14823712567593</v>
       </c>
       <c r="V30" t="n">
-        <v>124.9046406685812</v>
+        <v>74.14823712567593</v>
       </c>
       <c r="W30" t="n">
-        <v>124.9046406685812</v>
+        <v>74.14823712567593</v>
       </c>
       <c r="X30" t="n">
-        <v>124.9046406685812</v>
+        <v>74.14823712567593</v>
       </c>
       <c r="Y30" t="n">
-        <v>64.83122749592769</v>
+        <v>74.14823712567593</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="C31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="D31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="E31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="F31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="G31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="H31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="I31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="J31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="K31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="L31" t="n">
-        <v>5.72101300435012</v>
+        <v>5.721013004350125</v>
       </c>
       <c r="M31" t="n">
-        <v>8.056175583866597</v>
+        <v>8.056175583866601</v>
       </c>
       <c r="N31" t="n">
         <v>13.51811120849612</v>
@@ -6654,19 +6654,19 @@
         <v>13.51811120849612</v>
       </c>
       <c r="U31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="V31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="W31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="X31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.757814323274159</v>
+        <v>4.757814323274164</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>58.64240671806599</v>
+        <v>118.7158198907196</v>
       </c>
       <c r="C32" t="n">
-        <v>58.64240671806599</v>
+        <v>118.7158198907196</v>
       </c>
       <c r="D32" t="n">
-        <v>58.64240671806599</v>
+        <v>118.7158198907196</v>
       </c>
       <c r="E32" t="n">
-        <v>58.64240671806599</v>
+        <v>118.7158198907196</v>
       </c>
       <c r="F32" t="n">
-        <v>58.64240671806599</v>
+        <v>118.7158198907196</v>
       </c>
       <c r="G32" t="n">
-        <v>58.64240671806599</v>
+        <v>58.64240671806598</v>
       </c>
       <c r="H32" t="n">
-        <v>58.64240671806599</v>
+        <v>58.64240671806598</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="J32" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="K32" t="n">
-        <v>21.50623620569123</v>
+        <v>21.50623620569127</v>
       </c>
       <c r="L32" t="n">
-        <v>57.22934810006504</v>
+        <v>57.22934810006495</v>
       </c>
       <c r="M32" t="n">
         <v>109.8043153541834</v>
       </c>
       <c r="N32" t="n">
-        <v>165.0985929373368</v>
+        <v>165.0985929373367</v>
       </c>
       <c r="O32" t="n">
-        <v>211.9106304927799</v>
+        <v>211.9106304927801</v>
       </c>
       <c r="P32" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="R32" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="S32" t="n">
-        <v>177.8173029910544</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="T32" t="n">
-        <v>177.8173029910544</v>
+        <v>178.7892330633731</v>
       </c>
       <c r="U32" t="n">
-        <v>118.7158198907195</v>
+        <v>178.7892330633731</v>
       </c>
       <c r="V32" t="n">
-        <v>118.7158198907195</v>
+        <v>118.7158198907196</v>
       </c>
       <c r="W32" t="n">
-        <v>58.64240671806599</v>
+        <v>118.7158198907196</v>
       </c>
       <c r="X32" t="n">
-        <v>58.64240671806599</v>
+        <v>118.7158198907196</v>
       </c>
       <c r="Y32" t="n">
-        <v>58.64240671806599</v>
+        <v>118.7158198907196</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64.83122749592769</v>
+        <v>64.83122749592775</v>
       </c>
       <c r="C33" t="n">
-        <v>64.83122749592769</v>
+        <v>64.83122749592775</v>
       </c>
       <c r="D33" t="n">
-        <v>4.75781432327416</v>
+        <v>64.83122749592775</v>
       </c>
       <c r="E33" t="n">
-        <v>4.75781432327416</v>
+        <v>64.83122749592775</v>
       </c>
       <c r="F33" t="n">
-        <v>4.75781432327416</v>
+        <v>64.83122749592775</v>
       </c>
       <c r="G33" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="H33" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="I33" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="J33" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="K33" t="n">
-        <v>20.80315753179811</v>
+        <v>5.00637383373661</v>
       </c>
       <c r="L33" t="n">
-        <v>61.13873076183451</v>
+        <v>45.34194706377302</v>
       </c>
       <c r="M33" t="n">
-        <v>116.047973824975</v>
+        <v>100.2511901269136</v>
       </c>
       <c r="N33" t="n">
-        <v>159.1291423774312</v>
+        <v>159.1291423774314</v>
       </c>
       <c r="O33" t="n">
-        <v>207.0291700560332</v>
+        <v>207.0291700560333</v>
       </c>
       <c r="P33" t="n">
-        <v>237.6432733806194</v>
+        <v>237.6432733806196</v>
       </c>
       <c r="Q33" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="R33" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637082</v>
       </c>
       <c r="S33" t="n">
-        <v>177.8173029910544</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="T33" t="n">
-        <v>177.8173029910544</v>
+        <v>117.743889818401</v>
       </c>
       <c r="U33" t="n">
-        <v>117.7438898184009</v>
+        <v>64.83122749592775</v>
       </c>
       <c r="V33" t="n">
-        <v>64.83122749592769</v>
+        <v>64.83122749592775</v>
       </c>
       <c r="W33" t="n">
-        <v>64.83122749592769</v>
+        <v>64.83122749592775</v>
       </c>
       <c r="X33" t="n">
-        <v>64.83122749592769</v>
+        <v>64.83122749592775</v>
       </c>
       <c r="Y33" t="n">
-        <v>64.83122749592769</v>
+        <v>64.83122749592775</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.75781432327416</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="C34" t="n">
-        <v>4.75781432327416</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="D34" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="E34" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="F34" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="G34" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="H34" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="I34" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="J34" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="K34" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274164</v>
       </c>
       <c r="L34" t="n">
-        <v>5.721013004350121</v>
+        <v>5.721013004350132</v>
       </c>
       <c r="M34" t="n">
-        <v>8.056175583866597</v>
+        <v>8.056175583866615</v>
       </c>
       <c r="N34" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="O34" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="P34" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="R34" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="S34" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="T34" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="U34" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="V34" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="W34" t="n">
-        <v>4.75781432327416</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="X34" t="n">
-        <v>4.75781432327416</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.75781432327416</v>
+        <v>13.51811120849614</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="C35" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="D35" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="E35" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="F35" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="G35" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="H35" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="I35" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J35" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K35" t="n">
-        <v>21.50623620569124</v>
+        <v>21.50623620569127</v>
       </c>
       <c r="L35" t="n">
-        <v>57.22934810006504</v>
+        <v>57.22934810006507</v>
       </c>
       <c r="M35" t="n">
-        <v>109.8043153541834</v>
+        <v>109.8043153541835</v>
       </c>
       <c r="N35" t="n">
-        <v>165.0985929373367</v>
+        <v>165.0985929373368</v>
       </c>
       <c r="O35" t="n">
-        <v>211.9106304927799</v>
+        <v>211.91063049278</v>
       </c>
       <c r="P35" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="Q35" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="R35" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="S35" t="n">
-        <v>177.8173029910544</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="T35" t="n">
-        <v>117.7438898184009</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="U35" t="n">
-        <v>57.67047664574736</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="V35" t="n">
-        <v>57.67047664574736</v>
+        <v>117.743889818401</v>
       </c>
       <c r="W35" t="n">
-        <v>57.67047664574736</v>
+        <v>57.67047664574741</v>
       </c>
       <c r="X35" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.67047664574736</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="C36" t="n">
-        <v>57.67047664574736</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="D36" t="n">
-        <v>57.67047664574736</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="E36" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="F36" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="G36" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="H36" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="I36" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J36" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K36" t="n">
         <v>20.80315753179811</v>
       </c>
       <c r="L36" t="n">
-        <v>61.13873076183451</v>
+        <v>61.13873076183452</v>
       </c>
       <c r="M36" t="n">
-        <v>100.498632910002</v>
+        <v>100.2511901269136</v>
       </c>
       <c r="N36" t="n">
-        <v>159.3765851605198</v>
+        <v>159.1291423774313</v>
       </c>
       <c r="O36" t="n">
-        <v>207.2766128391218</v>
+        <v>207.0291700560333</v>
       </c>
       <c r="P36" t="n">
-        <v>237.890716163708</v>
+        <v>237.6432733806195</v>
       </c>
       <c r="Q36" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="R36" t="n">
-        <v>237.890716163708</v>
+        <v>206.2708164604753</v>
       </c>
       <c r="S36" t="n">
-        <v>237.890716163708</v>
+        <v>146.1974032878217</v>
       </c>
       <c r="T36" t="n">
-        <v>237.890716163708</v>
+        <v>146.1974032878217</v>
       </c>
       <c r="U36" t="n">
-        <v>177.8173029910544</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="V36" t="n">
-        <v>117.7438898184009</v>
+        <v>64.83122749592773</v>
       </c>
       <c r="W36" t="n">
-        <v>57.67047664574736</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="X36" t="n">
-        <v>57.67047664574736</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="Y36" t="n">
-        <v>57.67047664574736</v>
+        <v>4.757814323274163</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="C37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="D37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="E37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="F37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="G37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="H37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="I37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="L37" t="n">
-        <v>5.721013004350121</v>
+        <v>5.72101300435013</v>
       </c>
       <c r="M37" t="n">
-        <v>8.056175583866597</v>
+        <v>8.056175583866613</v>
       </c>
       <c r="N37" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="O37" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="P37" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="R37" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="S37" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="T37" t="n">
-        <v>4.75781432327416</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="U37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="V37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="W37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="X37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.75781432327416</v>
+        <v>4.757814323274163</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>57.67047664574741</v>
+        <v>117.743889818401</v>
       </c>
       <c r="C38" t="n">
-        <v>57.67047664574741</v>
+        <v>117.743889818401</v>
       </c>
       <c r="D38" t="n">
-        <v>57.67047664574741</v>
+        <v>117.743889818401</v>
       </c>
       <c r="E38" t="n">
-        <v>57.67047664574741</v>
+        <v>117.743889818401</v>
       </c>
       <c r="F38" t="n">
-        <v>57.67047664574741</v>
+        <v>58.64240671806598</v>
       </c>
       <c r="G38" t="n">
-        <v>57.67047664574741</v>
+        <v>58.64240671806598</v>
       </c>
       <c r="H38" t="n">
-        <v>7.345217846272297</v>
+        <v>58.64240671806598</v>
       </c>
       <c r="I38" t="n">
-        <v>7.345217846272297</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J38" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K38" t="n">
-        <v>21.50623620569118</v>
+        <v>21.50623620569127</v>
       </c>
       <c r="L38" t="n">
-        <v>57.22934810006504</v>
+        <v>57.22934810006507</v>
       </c>
       <c r="M38" t="n">
-        <v>109.8043153541834</v>
+        <v>109.8043153541835</v>
       </c>
       <c r="N38" t="n">
         <v>165.0985929373368</v>
       </c>
       <c r="O38" t="n">
-        <v>211.9106304927799</v>
+        <v>211.91063049278</v>
       </c>
       <c r="P38" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="Q38" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="R38" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="S38" t="n">
-        <v>237.890716163708</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="T38" t="n">
-        <v>177.8173029910545</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="U38" t="n">
-        <v>117.743889818401</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="V38" t="n">
         <v>117.743889818401</v>
       </c>
       <c r="W38" t="n">
-        <v>57.67047664574741</v>
+        <v>117.743889818401</v>
       </c>
       <c r="X38" t="n">
-        <v>57.67047664574741</v>
+        <v>117.743889818401</v>
       </c>
       <c r="Y38" t="n">
-        <v>57.67047664574741</v>
+        <v>117.743889818401</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.757814323274161</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="C39" t="n">
-        <v>4.757814323274161</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="D39" t="n">
-        <v>4.757814323274161</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="E39" t="n">
-        <v>4.757814323274161</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="F39" t="n">
-        <v>4.757814323274161</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="G39" t="n">
-        <v>4.757814323274161</v>
+        <v>64.83122749592773</v>
       </c>
       <c r="H39" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="I39" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J39" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K39" t="n">
         <v>20.80315753179811</v>
       </c>
       <c r="L39" t="n">
-        <v>61.13873076183451</v>
+        <v>61.13873076183452</v>
       </c>
       <c r="M39" t="n">
-        <v>116.047973824975</v>
+        <v>100.2511901269136</v>
       </c>
       <c r="N39" t="n">
         <v>159.1291423774313</v>
       </c>
       <c r="O39" t="n">
-        <v>207.0291700560332</v>
+        <v>207.0291700560333</v>
       </c>
       <c r="P39" t="n">
         <v>237.6432733806195</v>
       </c>
       <c r="Q39" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="R39" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="S39" t="n">
-        <v>237.890716163708</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="T39" t="n">
-        <v>237.890716163708</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="U39" t="n">
-        <v>237.890716163708</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="V39" t="n">
-        <v>177.8173029910545</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="W39" t="n">
-        <v>117.743889818401</v>
+        <v>177.8173029910546</v>
       </c>
       <c r="X39" t="n">
-        <v>117.743889818401</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="Y39" t="n">
-        <v>57.67047664574741</v>
+        <v>124.9046406685813</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="C40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="D40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="E40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="F40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="G40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="H40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="I40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="L40" t="n">
-        <v>5.721013004350122</v>
+        <v>5.72101300435013</v>
       </c>
       <c r="M40" t="n">
-        <v>8.056175583866599</v>
+        <v>8.056175583866613</v>
       </c>
       <c r="N40" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="O40" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="P40" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="R40" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="S40" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="T40" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="U40" t="n">
-        <v>13.51811120849612</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="V40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="W40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="X40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.757814323274161</v>
+        <v>4.757814323274163</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.8173029910545</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="C41" t="n">
-        <v>177.8173029910545</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="D41" t="n">
-        <v>177.8173029910545</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="E41" t="n">
-        <v>177.8173029910545</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="F41" t="n">
-        <v>127.4920441915794</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="G41" t="n">
-        <v>67.41863101892585</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="H41" t="n">
-        <v>7.345217846272298</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="I41" t="n">
-        <v>7.345217846272298</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J41" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K41" t="n">
-        <v>21.50623620569124</v>
+        <v>21.50623620569127</v>
       </c>
       <c r="L41" t="n">
-        <v>57.22934810006504</v>
+        <v>57.22934810006507</v>
       </c>
       <c r="M41" t="n">
-        <v>109.8043153541834</v>
+        <v>109.8043153541835</v>
       </c>
       <c r="N41" t="n">
         <v>165.0985929373368</v>
       </c>
       <c r="O41" t="n">
-        <v>211.9106304927799</v>
+        <v>211.91063049278</v>
       </c>
       <c r="P41" t="n">
-        <v>237.890716163708</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="Q41" t="n">
         <v>237.8907161637081</v>
       </c>
       <c r="R41" t="n">
-        <v>237.8907161637081</v>
+        <v>202.5976346682874</v>
       </c>
       <c r="S41" t="n">
-        <v>237.8907161637081</v>
+        <v>202.5976346682874</v>
       </c>
       <c r="T41" t="n">
-        <v>237.8907161637081</v>
+        <v>202.5976346682874</v>
       </c>
       <c r="U41" t="n">
-        <v>237.8907161637081</v>
+        <v>202.5976346682874</v>
       </c>
       <c r="V41" t="n">
-        <v>237.8907161637081</v>
+        <v>142.5242214956338</v>
       </c>
       <c r="W41" t="n">
-        <v>177.8173029910545</v>
+        <v>82.45080832298021</v>
       </c>
       <c r="X41" t="n">
-        <v>177.8173029910545</v>
+        <v>22.37739515032663</v>
       </c>
       <c r="Y41" t="n">
-        <v>177.8173029910545</v>
+        <v>22.37739515032663</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>237.8907161637081</v>
+        <v>184.9780538412349</v>
       </c>
       <c r="C42" t="n">
-        <v>237.8907161637081</v>
+        <v>184.9780538412349</v>
       </c>
       <c r="D42" t="n">
-        <v>177.8173029910545</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="E42" t="n">
-        <v>117.743889818401</v>
+        <v>64.83122749592773</v>
       </c>
       <c r="F42" t="n">
-        <v>57.67047664574741</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="G42" t="n">
-        <v>57.67047664574741</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="H42" t="n">
-        <v>39.27470394356366</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="I42" t="n">
-        <v>14.07482395302235</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J42" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K42" t="n">
         <v>20.80315753179811</v>
       </c>
       <c r="L42" t="n">
-        <v>61.13873076183451</v>
+        <v>61.13873076183452</v>
       </c>
       <c r="M42" t="n">
-        <v>116.047973824975</v>
+        <v>116.0479738249751</v>
       </c>
       <c r="N42" t="n">
-        <v>159.1291423774313</v>
+        <v>174.9259260754928</v>
       </c>
       <c r="O42" t="n">
-        <v>207.0291700560333</v>
+        <v>222.8259537540948</v>
       </c>
       <c r="P42" t="n">
-        <v>237.6432733806195</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="Q42" t="n">
         <v>237.8907161637081</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="C43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="D43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="E43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="F43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="G43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="H43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="I43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="L43" t="n">
-        <v>5.721013004350123</v>
+        <v>5.72101300435013</v>
       </c>
       <c r="M43" t="n">
-        <v>8.056175583866599</v>
+        <v>8.056175583866613</v>
       </c>
       <c r="N43" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="O43" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="P43" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="R43" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="S43" t="n">
-        <v>13.51811120849612</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="T43" t="n">
-        <v>4.757814323274162</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="U43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="V43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="W43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="X43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.757814323274162</v>
+        <v>4.757814323274163</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>168.5802487499645</v>
+        <v>184.9780538412349</v>
       </c>
       <c r="C44" t="n">
-        <v>126.3422322359324</v>
+        <v>184.9780538412349</v>
       </c>
       <c r="D44" t="n">
-        <v>58.11305767752532</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="E44" t="n">
-        <v>58.11305767752532</v>
+        <v>64.83122749592773</v>
       </c>
       <c r="F44" t="n">
-        <v>58.11305767752532</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="G44" t="n">
-        <v>58.11305767752532</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="H44" t="n">
-        <v>58.11305767752532</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="I44" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J44" t="n">
-        <v>5.403750625025843</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K44" t="n">
-        <v>25.9528505146465</v>
+        <v>21.50623620569127</v>
       </c>
       <c r="L44" t="n">
-        <v>66.39103955589508</v>
+        <v>57.22934810006507</v>
       </c>
       <c r="M44" t="n">
-        <v>124.2124386340153</v>
+        <v>109.8043153541835</v>
       </c>
       <c r="N44" t="n">
-        <v>184.8380407930585</v>
+        <v>165.0985929373368</v>
       </c>
       <c r="O44" t="n">
-        <v>236.6842969669481</v>
+        <v>211.91063049278</v>
       </c>
       <c r="P44" t="n">
-        <v>266.9609717579563</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="Q44" t="n">
-        <v>270.187531251292</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="R44" t="n">
-        <v>236.8094233083716</v>
+        <v>202.5976346682874</v>
       </c>
       <c r="S44" t="n">
-        <v>236.8094233083716</v>
+        <v>202.5976346682874</v>
       </c>
       <c r="T44" t="n">
-        <v>236.8094233083716</v>
+        <v>202.5976346682874</v>
       </c>
       <c r="U44" t="n">
-        <v>236.8094233083716</v>
+        <v>202.5976346682874</v>
       </c>
       <c r="V44" t="n">
-        <v>236.8094233083716</v>
+        <v>202.5976346682874</v>
       </c>
       <c r="W44" t="n">
-        <v>236.8094233083716</v>
+        <v>202.5976346682874</v>
       </c>
       <c r="X44" t="n">
-        <v>236.8094233083716</v>
+        <v>202.5976346682874</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.8094233083716</v>
+        <v>202.5976346682874</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13.17972044196498</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="C45" t="n">
-        <v>13.17972044196498</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="D45" t="n">
-        <v>13.17972044196498</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="E45" t="n">
-        <v>13.17972044196498</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="F45" t="n">
-        <v>13.17972044196498</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="G45" t="n">
-        <v>13.17972044196498</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="H45" t="n">
-        <v>13.17972044196498</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="I45" t="n">
-        <v>13.17972044196498</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J45" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K45" t="n">
-        <v>13.40660147342466</v>
+        <v>20.80315753179811</v>
       </c>
       <c r="L45" t="n">
-        <v>57.21327731392681</v>
+        <v>61.13873076183452</v>
       </c>
       <c r="M45" t="n">
-        <v>116.1731334021478</v>
+        <v>116.0479738249751</v>
       </c>
       <c r="N45" t="n">
-        <v>182.5289826313744</v>
+        <v>159.1291423774313</v>
       </c>
       <c r="O45" t="n">
-        <v>234.2326039532434</v>
+        <v>207.0291700560333</v>
       </c>
       <c r="P45" t="n">
-        <v>267.8994265072905</v>
+        <v>237.6432733806195</v>
       </c>
       <c r="Q45" t="n">
-        <v>270.187531251292</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="R45" t="n">
-        <v>270.187531251292</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="S45" t="n">
-        <v>270.187531251292</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="T45" t="n">
-        <v>270.187531251292</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="U45" t="n">
-        <v>201.9583566928849</v>
+        <v>237.8907161637081</v>
       </c>
       <c r="V45" t="n">
-        <v>133.7291821344779</v>
+        <v>184.9780538412349</v>
       </c>
       <c r="W45" t="n">
-        <v>65.50000757607079</v>
+        <v>124.9046406685813</v>
       </c>
       <c r="X45" t="n">
-        <v>13.17972044196498</v>
+        <v>64.83122749592773</v>
       </c>
       <c r="Y45" t="n">
-        <v>13.17972044196498</v>
+        <v>64.83122749592773</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="C46" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="D46" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="E46" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="F46" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="G46" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="H46" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="I46" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="J46" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="K46" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="L46" t="n">
-        <v>8.359541437615277</v>
+        <v>5.72101300435013</v>
       </c>
       <c r="M46" t="n">
-        <v>12.79561303778033</v>
+        <v>8.056175583866613</v>
       </c>
       <c r="N46" t="n">
-        <v>20.30850276230995</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="O46" t="n">
-        <v>20.30850276230995</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="P46" t="n">
-        <v>20.30850276230995</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.30850276230995</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="R46" t="n">
-        <v>20.30850276230995</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="S46" t="n">
-        <v>20.30850276230995</v>
+        <v>13.51811120849614</v>
       </c>
       <c r="T46" t="n">
-        <v>20.30850276230995</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="U46" t="n">
-        <v>20.30850276230995</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="V46" t="n">
-        <v>20.30850276230995</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="W46" t="n">
-        <v>20.30850276230995</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="X46" t="n">
-        <v>20.30850276230995</v>
+        <v>4.757814323274163</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.40375062502584</v>
+        <v>4.757814323274163</v>
       </c>
     </row>
   </sheetData>
@@ -22561,49 +22561,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H2" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I2" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J2" t="n">
-        <v>29.1286462554515</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K2" t="n">
-        <v>22.89962335916383</v>
+        <v>21.58238750890048</v>
       </c>
       <c r="L2" t="n">
-        <v>13.31283239473389</v>
+        <v>11.67868484452067</v>
       </c>
       <c r="M2" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678591627</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.455334146684066</v>
+        <v>3.710578808370073</v>
       </c>
       <c r="P2" t="n">
-        <v>18.77004728651484</v>
+        <v>17.28093897160524</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395125</v>
       </c>
       <c r="R2" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478607</v>
       </c>
       <c r="S2" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U2" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22640,19 +22640,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H3" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I3" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J3" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K3" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529461</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237374</v>
       </c>
       <c r="R3" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513828</v>
       </c>
       <c r="S3" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T3" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U3" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -22719,49 +22719,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H4" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I4" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J4" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K4" t="n">
-        <v>25.11327702096817</v>
+        <v>24.57360769300592</v>
       </c>
       <c r="L4" t="n">
-        <v>19.90215841909199</v>
+        <v>19.21156748094687</v>
       </c>
       <c r="M4" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N4" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319224</v>
       </c>
       <c r="O4" t="n">
-        <v>23.06022555481493</v>
+        <v>22.40367010010781</v>
       </c>
       <c r="P4" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666367</v>
       </c>
       <c r="R4" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S4" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T4" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -22810,7 +22810,7 @@
         <v>28.24975120521682</v>
       </c>
       <c r="K5" t="n">
-        <v>21.58238750890047</v>
+        <v>21.58238750890048</v>
       </c>
       <c r="L5" t="n">
         <v>11.67868484452067</v>
@@ -22822,7 +22822,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.710578808370059</v>
+        <v>3.710578808370073</v>
       </c>
       <c r="P5" t="n">
         <v>17.28093897160524</v>
@@ -22831,7 +22831,7 @@
         <v>32.68429818395125</v>
       </c>
       <c r="R5" t="n">
-        <v>53.95236302478606</v>
+        <v>53.95236302478607</v>
       </c>
       <c r="S5" t="n">
         <v>121.8265235513953</v>
@@ -22889,7 +22889,7 @@
         <v>24.52356840642668</v>
       </c>
       <c r="K6" t="n">
-        <v>9.942256166529454</v>
+        <v>9.942256166529461</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -23050,7 +23050,7 @@
         <v>21.55405633213152</v>
       </c>
       <c r="L8" t="n">
-        <v>11.64353751452478</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.40627785259142</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R9" t="n">
         <v>41.35075441487444</v>
@@ -23214,16 +23214,16 @@
         <v>18.90730960179207</v>
       </c>
       <c r="N10" t="n">
-        <v>15.24329362330671</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O10" t="n">
         <v>22.38954887144386</v>
       </c>
       <c r="P10" t="n">
-        <v>26.95620607407936</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.40353443947923</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R10" t="n">
         <v>73.70428898346404</v>
@@ -23266,10 +23266,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>372.6675088661858</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G11" t="n">
         <v>403.8959782144399</v>
@@ -23278,10 +23278,10 @@
         <v>300.1694450707848</v>
       </c>
       <c r="I11" t="n">
-        <v>56.76574385712079</v>
+        <v>56.76574385712078</v>
       </c>
       <c r="J11" t="n">
-        <v>10.09069110280006</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.579696329610414</v>
       </c>
       <c r="R11" t="n">
-        <v>17.0364735055277</v>
+        <v>40.51258854612289</v>
       </c>
       <c r="S11" t="n">
-        <v>79.42174720213747</v>
+        <v>93.98593139681815</v>
       </c>
       <c r="T11" t="n">
-        <v>179.1937763418983</v>
+        <v>179.1937763418982</v>
       </c>
       <c r="U11" t="n">
-        <v>216.9009805168661</v>
+        <v>254.4302849789525</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23345,22 +23345,22 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>118.6229476990921</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>70.3409765572341</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>67.99228462148547</v>
+        <v>67.99228462148541</v>
       </c>
       <c r="H12" t="n">
-        <v>28.66058246701635</v>
+        <v>66.18988692910271</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.58206201150025</v>
       </c>
       <c r="J12" t="n">
-        <v>13.70815661144294</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>34.25063875717579</v>
       </c>
       <c r="S12" t="n">
-        <v>99.50587214380288</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T12" t="n">
-        <v>156.1417168646031</v>
+        <v>118.6124124025167</v>
       </c>
       <c r="U12" t="n">
         <v>195.3510775903192</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>174.0451072748101</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>183.853834421031</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
@@ -23439,28 +23439,28 @@
         <v>105.1325298071908</v>
       </c>
       <c r="J13" t="n">
-        <v>27.80579301341919</v>
+        <v>27.80579301341918</v>
       </c>
       <c r="K13" t="n">
-        <v>13.42337108707596</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L13" t="n">
-        <v>4.943103517458709</v>
+        <v>4.943103517458695</v>
       </c>
       <c r="M13" t="n">
-        <v>3.878875624559498</v>
+        <v>3.878875624559477</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5722022158511422</v>
+        <v>0.572202215851128</v>
       </c>
       <c r="O13" t="n">
-        <v>8.838421371704122</v>
+        <v>8.838421371704108</v>
       </c>
       <c r="P13" t="n">
-        <v>15.36087546843636</v>
+        <v>15.36087546843635</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.37552856090304</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R13" t="n">
         <v>69.39351739781233</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>368.5896634057581</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23503,22 +23503,22 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>372.6675088661858</v>
       </c>
       <c r="F14" t="n">
-        <v>393.3439928852541</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G14" t="n">
-        <v>366.3666737523535</v>
+        <v>403.8959782144399</v>
       </c>
       <c r="H14" t="n">
-        <v>262.6401406086985</v>
+        <v>300.1694450707848</v>
       </c>
       <c r="I14" t="n">
-        <v>19.23643939503443</v>
+        <v>56.76574385712078</v>
       </c>
       <c r="J14" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280004</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.579696329610414</v>
       </c>
       <c r="R14" t="n">
-        <v>40.51258854612291</v>
+        <v>40.51258854612289</v>
       </c>
       <c r="S14" t="n">
         <v>116.9510516642238</v>
       </c>
       <c r="T14" t="n">
-        <v>216.7230808039846</v>
+        <v>183.6672694337789</v>
       </c>
       <c r="U14" t="n">
         <v>254.4302849789525</v>
@@ -23585,19 +23585,19 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>70.3409765572341</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>67.99228462148547</v>
+        <v>105.5215890835718</v>
       </c>
       <c r="H15" t="n">
-        <v>28.66058246701635</v>
+        <v>66.18988692910271</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.58206201150025</v>
       </c>
       <c r="J15" t="n">
-        <v>13.04321646293975</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,28 +23618,28 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>5.808809210202192</v>
       </c>
       <c r="R15" t="n">
         <v>34.25063875717579</v>
       </c>
       <c r="S15" t="n">
-        <v>99.50587214380288</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T15" t="n">
         <v>156.1417168646031</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3510775903192</v>
+        <v>157.8217731282328</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>174.0451072748101</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>173.5715321189481</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>155.2150672837333</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -23676,28 +23676,28 @@
         <v>105.1325298071908</v>
       </c>
       <c r="J16" t="n">
-        <v>27.80579301341919</v>
+        <v>27.80579301341918</v>
       </c>
       <c r="K16" t="n">
-        <v>13.42337108707596</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L16" t="n">
-        <v>4.943103517458709</v>
+        <v>4.943103517458695</v>
       </c>
       <c r="M16" t="n">
-        <v>3.878875624559498</v>
+        <v>3.878875624559477</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5722022158511422</v>
+        <v>0.572202215851128</v>
       </c>
       <c r="O16" t="n">
-        <v>8.838421371704122</v>
+        <v>8.838421371704108</v>
       </c>
       <c r="P16" t="n">
-        <v>15.36087546843636</v>
+        <v>15.36087546843635</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.37552856090304</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R16" t="n">
         <v>69.39351739781233</v>
@@ -23743,19 +23743,19 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>360.1044008096416</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>345.2174891969915</v>
+        <v>403.8109276487636</v>
       </c>
       <c r="H17" t="n">
-        <v>240.7049825132803</v>
+        <v>299.2984209650525</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>53.48683192388534</v>
       </c>
       <c r="J17" t="n">
-        <v>2.872130654231441</v>
+        <v>2.872130654231427</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3951920554342223</v>
+        <v>0.3951920554342081</v>
       </c>
       <c r="R17" t="n">
         <v>35.17003094995921</v>
       </c>
       <c r="S17" t="n">
-        <v>115.0129618988752</v>
+        <v>56.41952344710306</v>
       </c>
       <c r="T17" t="n">
-        <v>216.3507719527366</v>
+        <v>157.7573335009645</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4234809336984</v>
+        <v>195.8300424819262</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>294.7300785285632</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23825,7 +23825,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.4760830191159</v>
+        <v>46.88264456734372</v>
       </c>
       <c r="H18" t="n">
         <v>65.75039414869914</v>
@@ -23834,7 +23834,7 @@
         <v>25.01529619580182</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>9.408831460365221</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>40.06717850356158</v>
+        <v>40.06717850356156</v>
       </c>
       <c r="T18" t="n">
-        <v>97.36485703899316</v>
+        <v>155.9582954907653</v>
       </c>
       <c r="U18" t="n">
-        <v>136.7546453185171</v>
+        <v>175.1642541828349</v>
       </c>
       <c r="V18" t="n">
-        <v>200.7994136098075</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>152.5073981292624</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
@@ -23916,7 +23916,7 @@
         <v>25.10853457891821</v>
       </c>
       <c r="K19" t="n">
-        <v>8.990946914140054</v>
+        <v>8.990946914140046</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23928,13 +23928,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.445985453018089</v>
+        <v>3.445985453018082</v>
       </c>
       <c r="P19" t="n">
         <v>10.74671496790903</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.18092300089422</v>
+        <v>30.18092300089421</v>
       </c>
       <c r="R19" t="n">
         <v>67.67812068737877</v>
@@ -23946,7 +23946,7 @@
         <v>235.5623338988618</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9498563912409</v>
+        <v>272.0147648440449</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.553250077927</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23977,22 +23977,22 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>351.6033748765001</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>358.2266694740771</v>
       </c>
       <c r="G20" t="n">
-        <v>345.2174891969914</v>
+        <v>403.8109276487636</v>
       </c>
       <c r="H20" t="n">
         <v>299.2984209650525</v>
       </c>
       <c r="I20" t="n">
-        <v>1.877731335564448</v>
+        <v>53.48683192388534</v>
       </c>
       <c r="J20" t="n">
-        <v>2.872130654231427</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0.3951920554342081</v>
       </c>
       <c r="R20" t="n">
-        <v>35.17003094995921</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>115.0129618988752</v>
@@ -24025,13 +24025,13 @@
         <v>216.3507719527366</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4234809336984</v>
+        <v>240.8565419495681</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>287.745740665112</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>321.3292594044109</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24053,22 +24053,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>57.13474775102931</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>60.69444939582311</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>90.6853080871666</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>46.88264456734369</v>
+        <v>46.88264456734372</v>
       </c>
       <c r="H21" t="n">
         <v>65.75039414869914</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>25.01529619580182</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>31.42527100086661</v>
       </c>
       <c r="S21" t="n">
-        <v>98.66061695533371</v>
+        <v>40.06717850356156</v>
       </c>
       <c r="T21" t="n">
-        <v>155.9582954907653</v>
+        <v>113.7580263628096</v>
       </c>
       <c r="U21" t="n">
         <v>195.3480837702892</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>152.9809732851244</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -24141,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.2055447152815</v>
+        <v>157.2704531680855</v>
       </c>
       <c r="H22" t="n">
         <v>144.8009177829157</v>
@@ -24153,7 +24153,7 @@
         <v>25.10853457891821</v>
       </c>
       <c r="K22" t="n">
-        <v>4.50184081996214</v>
+        <v>8.990946914140046</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24165,7 +24165,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.445985453018082</v>
       </c>
       <c r="P22" t="n">
         <v>10.74671496790903</v>
@@ -24211,25 +24211,25 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>341.9088223385385</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>357.3474288849223</v>
       </c>
       <c r="G23" t="n">
         <v>403.8072680818602</v>
       </c>
       <c r="H23" t="n">
-        <v>299.2609424255035</v>
+        <v>239.7882633845765</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>53.34574647084391</v>
       </c>
       <c r="J23" t="n">
-        <v>2.561529487768169</v>
+        <v>2.561529487768155</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>34.9401506804666</v>
+        <v>34.94015068046659</v>
       </c>
       <c r="S23" t="n">
-        <v>55.45689047713812</v>
+        <v>114.9295695180651</v>
       </c>
       <c r="T23" t="n">
         <v>216.3347521986172</v>
       </c>
       <c r="U23" t="n">
-        <v>254.4231881683461</v>
+        <v>202.0396524690976</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>79.42732326830378</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
         <v>132.6551205385437</v>
@@ -24293,22 +24293,22 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>59.8152088066683</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.4741249782015</v>
+        <v>46.00144593727449</v>
       </c>
       <c r="H24" t="n">
         <v>65.73148359565771</v>
       </c>
       <c r="I24" t="n">
-        <v>24.9478811906359</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9.223839533450708</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.30370070620054</v>
+        <v>31.30370070620053</v>
       </c>
       <c r="S24" t="n">
         <v>98.62424720413911</v>
       </c>
       <c r="T24" t="n">
-        <v>103.5668675125681</v>
+        <v>96.47772417088956</v>
       </c>
       <c r="U24" t="n">
         <v>135.875275910881</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>193.3625967617346</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -24387,10 +24387,10 @@
         <v>103.9358664753031</v>
       </c>
       <c r="J25" t="n">
-        <v>24.99247658896607</v>
+        <v>24.99247658896606</v>
       </c>
       <c r="K25" t="n">
-        <v>8.800227985042923</v>
+        <v>8.800227985042916</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24402,22 +24402,22 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>3.213959012517144</v>
+        <v>3.213959012517122</v>
       </c>
       <c r="P25" t="n">
-        <v>10.54817626425424</v>
+        <v>10.54817626425423</v>
       </c>
       <c r="Q25" t="n">
-        <v>30.04346509354573</v>
+        <v>30.04346509354572</v>
       </c>
       <c r="R25" t="n">
-        <v>58.93161645619574</v>
+        <v>67.60431037256544</v>
       </c>
       <c r="S25" t="n">
         <v>178.0103292027852</v>
       </c>
       <c r="T25" t="n">
-        <v>235.5553199789341</v>
+        <v>226.8826260625644</v>
       </c>
       <c r="U25" t="n">
         <v>279.9497668518375</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>346.6462888269176</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>346.5506657389355</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>340.946611566943</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>357.3474288849223</v>
       </c>
       <c r="G26" t="n">
         <v>403.8072680818602</v>
@@ -24496,22 +24496,22 @@
         <v>114.9295695180651</v>
       </c>
       <c r="T26" t="n">
-        <v>216.3347521986172</v>
+        <v>163.9512164993687</v>
       </c>
       <c r="U26" t="n">
         <v>254.4231881683461</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>286.8665000759571</v>
       </c>
       <c r="W26" t="n">
-        <v>327.5391621569347</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>337.4546272804638</v>
       </c>
     </row>
     <row r="27">
@@ -24536,7 +24536,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.4741249782015</v>
+        <v>46.00144593727449</v>
       </c>
       <c r="H27" t="n">
         <v>65.73148359565771</v>
@@ -24545,7 +24545,7 @@
         <v>24.9478811906359</v>
       </c>
       <c r="J27" t="n">
-        <v>9.2238395334507</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,16 +24572,16 @@
         <v>31.30370070620053</v>
       </c>
       <c r="S27" t="n">
-        <v>39.15156816321212</v>
+        <v>98.62424720413911</v>
       </c>
       <c r="T27" t="n">
-        <v>96.4777241708896</v>
+        <v>96.47772417088956</v>
       </c>
       <c r="U27" t="n">
-        <v>195.347954951808</v>
+        <v>152.1882587860102</v>
       </c>
       <c r="V27" t="n">
-        <v>152.1017326959695</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
         <v>211.1008365810345</v>
@@ -24590,7 +24590,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>105.4244043405598</v>
+        <v>98.33526099888127</v>
       </c>
     </row>
     <row r="28">
@@ -24615,7 +24615,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.2039031595537</v>
+        <v>156.531209243184</v>
       </c>
       <c r="H28" t="n">
         <v>144.7863228601726</v>
@@ -24642,7 +24642,7 @@
         <v>3.213959012517122</v>
       </c>
       <c r="P28" t="n">
-        <v>1.875482347884493</v>
+        <v>10.54817626425423</v>
       </c>
       <c r="Q28" t="n">
         <v>30.04346509354572</v>
@@ -24688,10 +24688,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>350.7241342873452</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>364.4365722266008</v>
+        <v>357.3474288849222</v>
       </c>
       <c r="G29" t="n">
         <v>403.8072680818602</v>
@@ -24733,7 +24733,7 @@
         <v>114.9295695180651</v>
       </c>
       <c r="T29" t="n">
-        <v>156.8620731576902</v>
+        <v>163.9512164993687</v>
       </c>
       <c r="U29" t="n">
         <v>254.4231881683461</v>
@@ -24745,7 +24745,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>337.1642848118099</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24773,7 +24773,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>46.0014459372745</v>
+        <v>46.00144593727445</v>
       </c>
       <c r="H30" t="n">
         <v>65.73148359565771</v>
@@ -24782,7 +24782,7 @@
         <v>24.9478811906359</v>
       </c>
       <c r="J30" t="n">
-        <v>9.2238395334507</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>31.30370070620053</v>
       </c>
       <c r="S30" t="n">
-        <v>39.15156816321212</v>
+        <v>39.15156816321207</v>
       </c>
       <c r="T30" t="n">
-        <v>134.8705682187687</v>
+        <v>112.7907070460187</v>
       </c>
       <c r="U30" t="n">
-        <v>195.347954951808</v>
+        <v>135.875275910881</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -24827,7 +24827,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
-        <v>98.33526099888128</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="31">
@@ -24931,7 +24931,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>403.8072680818602</v>
+        <v>344.3345890409332</v>
       </c>
       <c r="H32" t="n">
         <v>299.2609424255035</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.561529487768155</v>
+        <v>2.561529487768141</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>34.94015068046659</v>
+        <v>34.94015068046658</v>
       </c>
       <c r="S32" t="n">
-        <v>55.45689047713808</v>
+        <v>114.9295695180651</v>
       </c>
       <c r="T32" t="n">
-        <v>216.3347521986172</v>
+        <v>157.8242839292855</v>
       </c>
       <c r="U32" t="n">
-        <v>195.9127198990145</v>
+        <v>254.4231881683461</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>286.866500075957</v>
       </c>
       <c r="W32" t="n">
-        <v>320.4500188152561</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25001,7 +25001,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>56.25550716187448</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
@@ -25010,16 +25010,16 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.4741249782015</v>
+        <v>46.00144593727445</v>
       </c>
       <c r="H33" t="n">
-        <v>65.73148359565771</v>
+        <v>65.73148359565769</v>
       </c>
       <c r="I33" t="n">
         <v>24.9478811906359</v>
       </c>
       <c r="J33" t="n">
-        <v>9.2238395334507</v>
+        <v>9.223839533450693</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,16 +25046,16 @@
         <v>31.30370070620053</v>
       </c>
       <c r="S33" t="n">
-        <v>39.15156816321211</v>
+        <v>39.15156816321207</v>
       </c>
       <c r="T33" t="n">
-        <v>155.9504032118166</v>
+        <v>96.47772417088953</v>
       </c>
       <c r="U33" t="n">
-        <v>135.875275910881</v>
+        <v>142.9644192525595</v>
       </c>
       <c r="V33" t="n">
-        <v>159.190876037648</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
@@ -25080,7 +25080,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>149.2270043139493</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25101,7 +25101,7 @@
         <v>24.99247658896606</v>
       </c>
       <c r="K34" t="n">
-        <v>8.800227985042916</v>
+        <v>8.800227985042909</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25113,10 +25113,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3.213959012517122</v>
+        <v>3.213959012517115</v>
       </c>
       <c r="P34" t="n">
-        <v>10.54817626425423</v>
+        <v>10.54817626425422</v>
       </c>
       <c r="Q34" t="n">
         <v>30.04346509354572</v>
@@ -25137,7 +25137,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>267.6062739298446</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25174,10 +25174,10 @@
         <v>299.2609424255035</v>
       </c>
       <c r="I35" t="n">
-        <v>53.34574647084391</v>
+        <v>53.3457464708439</v>
       </c>
       <c r="J35" t="n">
-        <v>2.561529487768155</v>
+        <v>2.561529487768141</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>34.94015068046659</v>
+        <v>34.94015068046658</v>
       </c>
       <c r="S35" t="n">
-        <v>55.45689047713808</v>
+        <v>55.45689047713805</v>
       </c>
       <c r="T35" t="n">
-        <v>156.8620731576902</v>
+        <v>216.3347521986172</v>
       </c>
       <c r="U35" t="n">
-        <v>194.9505091274191</v>
+        <v>254.4231881683461</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>286.8665000759571</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>320.450018815256</v>
       </c>
       <c r="X35" t="n">
         <v>344.2534281534885</v>
@@ -25241,7 +25241,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>66.90435214834682</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
         <v>107.8702810193205</v>
@@ -25250,13 +25250,13 @@
         <v>105.4741249782015</v>
       </c>
       <c r="H36" t="n">
-        <v>65.73148359565771</v>
+        <v>65.73148359565769</v>
       </c>
       <c r="I36" t="n">
         <v>24.9478811906359</v>
       </c>
       <c r="J36" t="n">
-        <v>9.2238395334507</v>
+        <v>9.223839533450693</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.30370070620053</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>98.62424720413911</v>
+        <v>39.15156816321208</v>
       </c>
       <c r="T36" t="n">
         <v>155.9504032118166</v>
       </c>
       <c r="U36" t="n">
-        <v>135.875275910881</v>
+        <v>174.26811995876</v>
       </c>
       <c r="V36" t="n">
         <v>152.1017326959695</v>
@@ -25338,7 +25338,7 @@
         <v>24.99247658896606</v>
       </c>
       <c r="K37" t="n">
-        <v>8.800227985042916</v>
+        <v>8.800227985042909</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25350,10 +25350,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>3.213959012517122</v>
+        <v>3.213959012517115</v>
       </c>
       <c r="P37" t="n">
-        <v>10.54817626425423</v>
+        <v>10.54817626425422</v>
       </c>
       <c r="Q37" t="n">
         <v>30.04346509354572</v>
@@ -25365,10 +25365,10 @@
         <v>178.0103292027852</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8826260625644</v>
+        <v>235.5553199789341</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9497668518375</v>
+        <v>271.2770729354677</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25402,19 +25402,19 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>358.3096396565177</v>
       </c>
       <c r="G38" t="n">
         <v>403.8072680818602</v>
       </c>
       <c r="H38" t="n">
-        <v>249.4389362140232</v>
+        <v>299.2609424255035</v>
       </c>
       <c r="I38" t="n">
-        <v>53.34574647084391</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.561529487768141</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>34.94015068046659</v>
+        <v>34.94015068046658</v>
       </c>
       <c r="S38" t="n">
-        <v>114.9295695180651</v>
+        <v>55.45689047713805</v>
       </c>
       <c r="T38" t="n">
-        <v>156.8620731576902</v>
+        <v>216.3347521986172</v>
       </c>
       <c r="U38" t="n">
-        <v>194.9505091274191</v>
+        <v>254.4231881683461</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>286.8665000759571</v>
       </c>
       <c r="W38" t="n">
-        <v>320.4500188152561</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>86.51646660998225</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
         <v>132.6551205385437</v>
@@ -25484,16 +25484,16 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.4741249782015</v>
+        <v>46.00144593727445</v>
       </c>
       <c r="H39" t="n">
-        <v>65.73148359565771</v>
+        <v>6.258804554730659</v>
       </c>
       <c r="I39" t="n">
         <v>24.9478811906359</v>
       </c>
       <c r="J39" t="n">
-        <v>9.2238395334507</v>
+        <v>9.223839533450693</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>31.30370070620053</v>
       </c>
       <c r="S39" t="n">
-        <v>98.62424720413911</v>
+        <v>39.15156816321208</v>
       </c>
       <c r="T39" t="n">
         <v>155.9504032118166</v>
@@ -25529,16 +25529,16 @@
         <v>195.347954951808</v>
       </c>
       <c r="V39" t="n">
-        <v>152.1017326959695</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>151.6281575401075</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>122.1791863432476</v>
       </c>
       <c r="Y39" t="n">
-        <v>98.33526099888127</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="40">
@@ -25575,7 +25575,7 @@
         <v>24.99247658896606</v>
       </c>
       <c r="K40" t="n">
-        <v>8.800227985042916</v>
+        <v>8.800227985042909</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25587,10 +25587,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>3.213959012517122</v>
+        <v>3.213959012517115</v>
       </c>
       <c r="P40" t="n">
-        <v>10.54817626425423</v>
+        <v>10.54817626425422</v>
       </c>
       <c r="Q40" t="n">
         <v>30.04346509354572</v>
@@ -25605,10 +25605,10 @@
         <v>235.5553199789341</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9497668518375</v>
+        <v>271.2770729354677</v>
       </c>
       <c r="V40" t="n">
-        <v>262.4741936935035</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>388.6755828490626</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25639,19 +25639,19 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>366.9981017143689</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>344.3345890409332</v>
+        <v>403.8072680818602</v>
       </c>
       <c r="H41" t="n">
-        <v>239.7882633845765</v>
+        <v>299.2609424255035</v>
       </c>
       <c r="I41" t="n">
-        <v>53.34574647084391</v>
+        <v>53.3457464708439</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.561529487768141</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>34.94015068046659</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>114.9295695180651</v>
@@ -25687,13 +25687,13 @@
         <v>254.4231881683461</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>286.8665000759571</v>
       </c>
       <c r="W41" t="n">
-        <v>320.4500188152561</v>
+        <v>320.450018815256</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>337.1642848118099</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>86.51646660998225</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>56.25550716187446</v>
+        <v>56.25550716187445</v>
       </c>
       <c r="E42" t="n">
-        <v>59.81520880666827</v>
+        <v>59.81520880666825</v>
       </c>
       <c r="F42" t="n">
-        <v>48.39760197839344</v>
+        <v>48.39760197839342</v>
       </c>
       <c r="G42" t="n">
         <v>105.4741249782015</v>
       </c>
       <c r="H42" t="n">
-        <v>47.51966862049579</v>
+        <v>65.73148359565769</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>24.9478811906359</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>9.223839533450693</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25812,7 +25812,7 @@
         <v>24.99247658896606</v>
       </c>
       <c r="K43" t="n">
-        <v>8.800227985042916</v>
+        <v>8.800227985042909</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3.213959012517122</v>
+        <v>3.213959012517115</v>
       </c>
       <c r="P43" t="n">
-        <v>10.54817626425423</v>
+        <v>10.54817626425422</v>
       </c>
       <c r="Q43" t="n">
         <v>30.04346509354572</v>
@@ -25839,10 +25839,10 @@
         <v>178.0103292027852</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8826260625644</v>
+        <v>235.5553199789341</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9497668518375</v>
+        <v>271.2770729354677</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25864,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>338.5720850550215</v>
+        <v>388.6755828490626</v>
       </c>
       <c r="C44" t="n">
-        <v>364.2077084309707</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>332.872407795047</v>
+        <v>340.946611566943</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>350.7241342873452</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>357.3474288849222</v>
       </c>
       <c r="G44" t="n">
-        <v>403.7770876139562</v>
+        <v>403.8072680818602</v>
       </c>
       <c r="H44" t="n">
-        <v>298.9518567085815</v>
+        <v>299.2609424255035</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>53.3457464708439</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.561529487768141</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>114.2418321057024</v>
+        <v>114.9295695180651</v>
       </c>
       <c r="T44" t="n">
-        <v>216.2026372003674</v>
+        <v>216.3347521986172</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4207737309138</v>
+        <v>254.4231881683461</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>79.42732326830372</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
@@ -25958,16 +25958,16 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.4579770042659</v>
+        <v>105.4741249782015</v>
       </c>
       <c r="H45" t="n">
-        <v>65.57552816317418</v>
+        <v>65.73148359565769</v>
       </c>
       <c r="I45" t="n">
-        <v>24.39190928101028</v>
+        <v>24.9478811906359</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>9.223839533450693</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.30110983325018</v>
+        <v>31.30370070620053</v>
       </c>
       <c r="S45" t="n">
-        <v>98.32430567072961</v>
+        <v>98.62424720413911</v>
       </c>
       <c r="T45" t="n">
-        <v>155.8853155449445</v>
+        <v>155.9504032118166</v>
       </c>
       <c r="U45" t="n">
-        <v>127.8000097722787</v>
+        <v>195.347954951808</v>
       </c>
       <c r="V45" t="n">
-        <v>144.0275289240735</v>
+        <v>159.190876037648</v>
       </c>
       <c r="W45" t="n">
-        <v>143.5539537682115</v>
+        <v>151.6281575401075</v>
       </c>
       <c r="X45" t="n">
-        <v>122.7656377797314</v>
+        <v>115.0900430015691</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -26037,19 +26037,19 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.1903652406517</v>
+        <v>165.2039031595537</v>
       </c>
       <c r="H46" t="n">
-        <v>144.6659584539346</v>
+        <v>144.7863228601726</v>
       </c>
       <c r="I46" t="n">
-        <v>103.5287443323222</v>
+        <v>103.9358664753031</v>
       </c>
       <c r="J46" t="n">
-        <v>24.03534572259288</v>
+        <v>24.99247658896606</v>
       </c>
       <c r="K46" t="n">
-        <v>7.227367952607629</v>
+        <v>8.800227985042909</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26061,25 +26061,25 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.300435711710882</v>
+        <v>3.213959012517115</v>
       </c>
       <c r="P46" t="n">
-        <v>8.910826509049301</v>
+        <v>10.54817626425422</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.90984899348614</v>
+        <v>30.04346509354572</v>
       </c>
       <c r="R46" t="n">
-        <v>66.99559630993437</v>
+        <v>67.60431037256544</v>
       </c>
       <c r="S46" t="n">
-        <v>177.77440019792</v>
+        <v>178.0103292027852</v>
       </c>
       <c r="T46" t="n">
-        <v>235.4974761436255</v>
+        <v>226.8826260625644</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9490284198974</v>
+        <v>279.9497668518375</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>207.7326370092117</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>108111.6693033005</v>
+        <v>109790.5878829066</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>155172.5473548091</v>
+        <v>155172.5473548092</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>174641.1179451855</v>
+        <v>174641.1179451856</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>175445.7378801884</v>
+        <v>175445.7378801883</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>175445.7378801884</v>
+        <v>175445.7378801883</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>175445.7378801882</v>
+        <v>175445.7378801884</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>175445.7378801882</v>
+        <v>175445.7378801883</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182263.828415041</v>
+        <v>175445.7378801884</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27027.91732582511</v>
+        <v>27447.64697072665</v>
       </c>
       <c r="C2" t="n">
-        <v>27447.64697072664</v>
+        <v>27447.64697072665</v>
       </c>
       <c r="D2" t="n">
         <v>27456.33684288678</v>
       </c>
       <c r="E2" t="n">
-        <v>38793.1368387023</v>
+        <v>38793.13683870229</v>
       </c>
       <c r="F2" t="n">
-        <v>38793.13683870227</v>
+        <v>38793.13683870229</v>
       </c>
       <c r="G2" t="n">
-        <v>43660.27948629639</v>
+        <v>43660.27948629641</v>
       </c>
       <c r="H2" t="n">
-        <v>43660.27948629641</v>
+        <v>43660.2794862964</v>
       </c>
       <c r="I2" t="n">
         <v>43861.43447004709</v>
@@ -26340,22 +26340,22 @@
         <v>43861.43447004709</v>
       </c>
       <c r="K2" t="n">
-        <v>43861.43447004708</v>
+        <v>43861.4344700471</v>
       </c>
       <c r="L2" t="n">
-        <v>43861.43447004709</v>
+        <v>43861.4344700471</v>
       </c>
       <c r="M2" t="n">
-        <v>43861.43447004708</v>
+        <v>43861.4344700471</v>
       </c>
       <c r="N2" t="n">
-        <v>43861.43447004709</v>
+        <v>43861.4344700471</v>
       </c>
       <c r="O2" t="n">
-        <v>43861.43447004709</v>
+        <v>43861.4344700471</v>
       </c>
       <c r="P2" t="n">
-        <v>45565.95710376028</v>
+        <v>43861.4344700471</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124814.4729473245</v>
+        <v>127296.6306302405</v>
       </c>
       <c r="C3" t="n">
-        <v>2345.607365590443</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47.44730469677427</v>
+        <v>47.4473046967986</v>
       </c>
       <c r="E3" t="n">
-        <v>53918.8286866593</v>
+        <v>53918.82868665936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>22222.13331710986</v>
+        <v>22222.13331710982</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>919.0489492825557</v>
+        <v>919.0489492826097</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9352.452789169769</v>
+        <v>9352.452789169782</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5069.104908751872</v>
+        <v>5069.10490875186</v>
       </c>
       <c r="P3" t="n">
-        <v>6905.271374916247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>27.19396146355784</v>
+        <v>27.19396146355788</v>
       </c>
       <c r="F4" t="n">
-        <v>27.19396146355784</v>
+        <v>27.19396146355789</v>
       </c>
       <c r="G4" t="n">
-        <v>42.74862403161379</v>
+        <v>42.7486240316138</v>
       </c>
       <c r="H4" t="n">
-        <v>42.74862403161382</v>
+        <v>42.74862403161381</v>
       </c>
       <c r="I4" t="n">
-        <v>43.41281992390641</v>
+        <v>43.41281992390645</v>
       </c>
       <c r="J4" t="n">
-        <v>43.41281992390644</v>
+        <v>43.41281992390645</v>
       </c>
       <c r="K4" t="n">
-        <v>43.41281992390644</v>
+        <v>43.41281992390645</v>
       </c>
       <c r="L4" t="n">
-        <v>43.41281992390644</v>
+        <v>43.41281992390647</v>
       </c>
       <c r="M4" t="n">
-        <v>43.41281992390645</v>
+        <v>43.41281992390647</v>
       </c>
       <c r="N4" t="n">
-        <v>43.41281992390645</v>
+        <v>43.41281992390647</v>
       </c>
       <c r="O4" t="n">
-        <v>43.41281992390645</v>
+        <v>43.41281992390647</v>
       </c>
       <c r="P4" t="n">
-        <v>49.48687164802922</v>
+        <v>43.41281992390648</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36451.30153811922</v>
+        <v>36507.45586302721</v>
       </c>
       <c r="C5" t="n">
         <v>36507.45586302721</v>
@@ -26478,40 +26478,40 @@
         <v>36508.66363315053</v>
       </c>
       <c r="E5" t="n">
-        <v>6321.855464663668</v>
+        <v>6321.855464663671</v>
       </c>
       <c r="F5" t="n">
-        <v>6321.855464663668</v>
+        <v>6321.855464663671</v>
       </c>
       <c r="G5" t="n">
-        <v>8063.762766257702</v>
+        <v>8063.762766257703</v>
       </c>
       <c r="H5" t="n">
-        <v>8063.762766257705</v>
+        <v>8063.762766257703</v>
       </c>
       <c r="I5" t="n">
-        <v>8137.065510503463</v>
+        <v>8137.065510503464</v>
       </c>
       <c r="J5" t="n">
         <v>8137.065510503464</v>
       </c>
       <c r="K5" t="n">
-        <v>8137.065510503464</v>
+        <v>8137.065510503468</v>
       </c>
       <c r="L5" t="n">
-        <v>8137.065510503464</v>
+        <v>8137.065510503468</v>
       </c>
       <c r="M5" t="n">
-        <v>8137.065510503464</v>
+        <v>8137.065510503468</v>
       </c>
       <c r="N5" t="n">
-        <v>8137.065510503466</v>
+        <v>8137.065510503468</v>
       </c>
       <c r="O5" t="n">
-        <v>8137.065510503466</v>
+        <v>8137.065510503468</v>
       </c>
       <c r="P5" t="n">
-        <v>8791.638232161224</v>
+        <v>8137.065510503468</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134237.8571596186</v>
+        <v>-137789.2088316462</v>
       </c>
       <c r="C6" t="n">
-        <v>-11405.41625789101</v>
+        <v>-10492.57820140566</v>
       </c>
       <c r="D6" t="n">
-        <v>-9099.774094960529</v>
+        <v>-10532.48133355021</v>
       </c>
       <c r="E6" t="n">
-        <v>-21474.74127408423</v>
+        <v>-22826.47136984671</v>
       </c>
       <c r="F6" t="n">
-        <v>32444.08741257505</v>
+        <v>31092.35731681265</v>
       </c>
       <c r="G6" t="n">
-        <v>13331.63477889722</v>
+        <v>12014.66998776053</v>
       </c>
       <c r="H6" t="n">
-        <v>35553.76809600709</v>
+        <v>34236.80330487035</v>
       </c>
       <c r="I6" t="n">
-        <v>34761.90719033717</v>
+        <v>33446.37922051288</v>
       </c>
       <c r="J6" t="n">
-        <v>35680.95613961972</v>
+        <v>34365.42816979549</v>
       </c>
       <c r="K6" t="n">
-        <v>35680.95613961971</v>
+        <v>34365.42816979549</v>
       </c>
       <c r="L6" t="n">
-        <v>35680.95613961972</v>
+        <v>34365.4281697955</v>
       </c>
       <c r="M6" t="n">
-        <v>26328.50335044995</v>
+        <v>25012.97538062572</v>
       </c>
       <c r="N6" t="n">
-        <v>35680.95613961972</v>
+        <v>34365.42816979549</v>
       </c>
       <c r="O6" t="n">
-        <v>30611.85123086785</v>
+        <v>29296.32326104363</v>
       </c>
       <c r="P6" t="n">
-        <v>29819.56062503478</v>
+        <v>34365.42816979549</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553768</v>
       </c>
       <c r="C3" t="n">
         <v>132.1034799553768</v>
@@ -26746,10 +26746,10 @@
         <v>132.1588822546115</v>
       </c>
       <c r="E3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="F3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="G3" t="n">
         <v>206.4808123114659</v>
@@ -26758,7 +26758,7 @@
         <v>206.4808123114659</v>
       </c>
       <c r="I3" t="n">
-        <v>207.3911295786744</v>
+        <v>207.3911295786745</v>
       </c>
       <c r="J3" t="n">
         <v>207.3911295786745</v>
@@ -26779,7 +26779,7 @@
         <v>207.3911295786745</v>
       </c>
       <c r="P3" t="n">
-        <v>214.8985209697975</v>
+        <v>207.3911295786745</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F4" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="G4" t="n">
-        <v>58.59343845177213</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="H4" t="n">
-        <v>58.59343845177217</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="I4" t="n">
-        <v>59.47267904092698</v>
+        <v>59.472679040927</v>
       </c>
       <c r="J4" t="n">
-        <v>59.47267904092698</v>
+        <v>59.472679040927</v>
       </c>
       <c r="K4" t="n">
-        <v>59.47267904092699</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="L4" t="n">
-        <v>59.472679040927</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="M4" t="n">
-        <v>59.472679040927</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="N4" t="n">
-        <v>59.47267904092701</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="O4" t="n">
-        <v>59.47267904092702</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.546882812823</v>
+        <v>59.47267904092703</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553768</v>
       </c>
       <c r="C3" t="n">
-        <v>2.575886463669576</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05540229923468587</v>
+        <v>0.05540229923471429</v>
       </c>
       <c r="E3" t="n">
-        <v>53.16560184487545</v>
+        <v>53.16560184487551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21.15632821197889</v>
+        <v>21.15632821197886</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9103172672084838</v>
+        <v>0.9103172672085407</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.507391391123036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>21.06413398968577</v>
+        <v>21.06413398968573</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8792405891548114</v>
+        <v>0.879240589154854</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208641</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>21.06413398968578</v>
+        <v>21.06413398968573</v>
       </c>
       <c r="P4" t="n">
-        <v>8.074203771895981</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>21.06413398968577</v>
+        <v>21.06413398968573</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5207139436852549</v>
+        <v>0.5310692661522682</v>
       </c>
       <c r="H2" t="n">
-        <v>5.332761675766618</v>
+        <v>5.438813121981918</v>
       </c>
       <c r="I2" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J2" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809112</v>
       </c>
       <c r="K2" t="n">
-        <v>66.2367663140533</v>
+        <v>67.55400216431664</v>
       </c>
       <c r="L2" t="n">
-        <v>82.17256566811093</v>
+        <v>83.80671321832415</v>
       </c>
       <c r="M2" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025954</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>87.73444147909906</v>
+        <v>89.47919681741305</v>
       </c>
       <c r="P2" t="n">
-        <v>74.87931599436932</v>
+        <v>76.36842430927892</v>
       </c>
       <c r="Q2" t="n">
-        <v>56.23124788614111</v>
+        <v>57.3495062152008</v>
       </c>
       <c r="R2" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993745</v>
       </c>
       <c r="S2" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244482</v>
       </c>
       <c r="T2" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581555</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218145</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2786065218500873</v>
+        <v>0.2841471078285464</v>
       </c>
       <c r="H3" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186225</v>
       </c>
       <c r="I3" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78313507216706</v>
       </c>
       <c r="J3" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K3" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808593</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
@@ -31147,22 +31147,22 @@
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246498</v>
       </c>
       <c r="R3" t="n">
-        <v>17.29804352328876</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S3" t="n">
-        <v>5.174993947522452</v>
+        <v>5.277907901990759</v>
       </c>
       <c r="T3" t="n">
-        <v>1.122979796404518</v>
+        <v>1.145312246028219</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01832937643750575</v>
+        <v>0.01869388867293069</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H4" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I4" t="n">
-        <v>7.024217692960127</v>
+        <v>7.163906749055519</v>
       </c>
       <c r="J4" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K4" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L4" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295464</v>
       </c>
       <c r="M4" t="n">
-        <v>36.61384089471324</v>
+        <v>37.34197221099282</v>
       </c>
       <c r="N4" t="n">
-        <v>35.74324559419524</v>
+        <v>36.4540635752272</v>
       </c>
       <c r="O4" t="n">
-        <v>33.01467251818139</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P4" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.55866661724779</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R4" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S4" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9979994908377441</v>
+        <v>1.017846484902083</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>0.5310692661522682</v>
       </c>
       <c r="H5" t="n">
-        <v>5.438813121981919</v>
+        <v>5.438813121981918</v>
       </c>
       <c r="I5" t="n">
         <v>20.47404788333534</v>
@@ -31290,7 +31290,7 @@
         <v>45.07384012809112</v>
       </c>
       <c r="K5" t="n">
-        <v>67.55400216431666</v>
+        <v>67.55400216431664</v>
       </c>
       <c r="L5" t="n">
         <v>83.80671321832415</v>
@@ -31302,7 +31302,7 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>89.47919681741307</v>
+        <v>89.47919681741305</v>
       </c>
       <c r="P5" t="n">
         <v>76.36842430927892</v>
@@ -31311,13 +31311,13 @@
         <v>57.3495062152008</v>
       </c>
       <c r="R5" t="n">
-        <v>33.35977978993746</v>
+        <v>33.35977978993745</v>
       </c>
       <c r="S5" t="n">
-        <v>12.10174090244483</v>
+        <v>12.10174090244482</v>
       </c>
       <c r="T5" t="n">
-        <v>2.324755712581556</v>
+        <v>2.324755712581555</v>
       </c>
       <c r="U5" t="n">
         <v>0.04248554129218145</v>
@@ -31369,7 +31369,7 @@
         <v>26.84567039357333</v>
       </c>
       <c r="K6" t="n">
-        <v>45.88352661808594</v>
+        <v>45.88352661808593</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
@@ -31393,7 +31393,7 @@
         <v>17.64204587026713</v>
       </c>
       <c r="S6" t="n">
-        <v>5.27790790199076</v>
+        <v>5.277907901990759</v>
       </c>
       <c r="T6" t="n">
         <v>1.145312246028219</v>
@@ -31442,7 +31442,7 @@
         <v>2.117986940923912</v>
       </c>
       <c r="I7" t="n">
-        <v>7.16390674905552</v>
+        <v>7.163906749055519</v>
       </c>
       <c r="J7" t="n">
         <v>16.84211087890107</v>
@@ -31518,7 +31518,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H8" t="n">
-        <v>5.441094081970008</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I8" t="n">
         <v>20.48263440450618</v>
@@ -31530,7 +31530,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L8" t="n">
-        <v>83.84186054832004</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
@@ -31600,7 +31600,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I9" t="n">
-        <v>9.787237978289628</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J9" t="n">
         <v>26.85692908157158</v>
@@ -31624,13 +31624,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.2863406522473</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R9" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S9" t="n">
-        <v>5.280121380644146</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T9" t="n">
         <v>1.14579257350932</v>
@@ -31679,7 +31679,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I10" t="n">
-        <v>7.166911188495984</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J10" t="n">
         <v>16.84917421793629</v>
@@ -31700,7 +31700,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P10" t="n">
-        <v>28.82363556582542</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q10" t="n">
         <v>19.95599122044634</v>
@@ -31709,7 +31709,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S10" t="n">
-        <v>4.153255365280167</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T10" t="n">
         <v>1.018273355076515</v>
@@ -31752,25 +31752,25 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.7450230516562287</v>
       </c>
       <c r="H11" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774355</v>
       </c>
       <c r="I11" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J11" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050791</v>
       </c>
       <c r="K11" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711609</v>
       </c>
       <c r="L11" t="n">
         <v>117.5702252242404</v>
       </c>
       <c r="M11" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N11" t="n">
         <v>130.4415952187057</v>
@@ -31782,19 +31782,19 @@
         <v>107.1352461069803</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954163</v>
       </c>
       <c r="R11" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860062</v>
       </c>
       <c r="S11" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T11" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625143</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.05960184413249829</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.3986224752328589</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I12" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J12" t="n">
-        <v>37.66108218855707</v>
+        <v>37.66108218855709</v>
       </c>
       <c r="K12" t="n">
-        <v>64.36878802915861</v>
+        <v>64.36878802915864</v>
       </c>
       <c r="L12" t="n">
-        <v>86.55177910702929</v>
+        <v>86.55177910702932</v>
       </c>
       <c r="M12" t="n">
-        <v>95.09358820050377</v>
+        <v>92.56465279593455</v>
       </c>
       <c r="N12" t="n">
-        <v>88.19376245126703</v>
+        <v>90.7226978558364</v>
       </c>
       <c r="O12" t="n">
-        <v>94.84242725419689</v>
+        <v>94.84242725419692</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463653</v>
       </c>
       <c r="R12" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822962</v>
       </c>
       <c r="S12" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031388</v>
       </c>
       <c r="T12" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384192</v>
       </c>
       <c r="H13" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I13" t="n">
         <v>10.05005562952628</v>
       </c>
       <c r="J13" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953624</v>
       </c>
       <c r="K13" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199088</v>
       </c>
       <c r="L13" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644281</v>
       </c>
       <c r="M13" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N13" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256831</v>
       </c>
       <c r="O13" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129222</v>
       </c>
       <c r="P13" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146843</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R13" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S13" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798632</v>
       </c>
       <c r="T13" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,25 +31989,25 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.7450230516562287</v>
       </c>
       <c r="H14" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774355</v>
       </c>
       <c r="I14" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J14" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050791</v>
       </c>
       <c r="K14" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711609</v>
       </c>
       <c r="L14" t="n">
         <v>117.5702252242404</v>
       </c>
       <c r="M14" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N14" t="n">
         <v>130.4415952187057</v>
@@ -32019,19 +32019,19 @@
         <v>107.1352461069803</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954163</v>
       </c>
       <c r="R14" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860062</v>
       </c>
       <c r="S14" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T14" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625143</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.05960184413249829</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.3986224752328589</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I15" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J15" t="n">
-        <v>37.66108218855707</v>
+        <v>37.66108218855709</v>
       </c>
       <c r="K15" t="n">
-        <v>64.36878802915861</v>
+        <v>64.36878802915864</v>
       </c>
       <c r="L15" t="n">
-        <v>86.55177910702929</v>
+        <v>86.55177910702932</v>
       </c>
       <c r="M15" t="n">
-        <v>95.09358820050377</v>
+        <v>95.09358820050383</v>
       </c>
       <c r="N15" t="n">
-        <v>66.33398812649091</v>
+        <v>88.19376245126712</v>
       </c>
       <c r="O15" t="n">
-        <v>94.84242725419689</v>
+        <v>94.84242725419692</v>
       </c>
       <c r="P15" t="n">
-        <v>76.11940932757986</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463653</v>
       </c>
       <c r="R15" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822962</v>
       </c>
       <c r="S15" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031388</v>
       </c>
       <c r="T15" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384192</v>
       </c>
       <c r="H16" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I16" t="n">
         <v>10.05005562952628</v>
       </c>
       <c r="J16" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953624</v>
       </c>
       <c r="K16" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199088</v>
       </c>
       <c r="L16" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644281</v>
       </c>
       <c r="M16" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N16" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256831</v>
       </c>
       <c r="O16" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129222</v>
       </c>
       <c r="P16" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146843</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R16" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S16" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798632</v>
       </c>
       <c r="T16" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8300736173325255</v>
+        <v>0.8300736173325256</v>
       </c>
       <c r="H17" t="n">
         <v>8.50099143350673</v>
       </c>
       <c r="I17" t="n">
-        <v>32.00141313221222</v>
+        <v>32.00141313221223</v>
       </c>
       <c r="J17" t="n">
-        <v>70.4514606790765</v>
+        <v>70.45146067907652</v>
       </c>
       <c r="K17" t="n">
         <v>105.5884769007623</v>
       </c>
       <c r="L17" t="n">
-        <v>130.9918423672026</v>
+        <v>130.9918423672027</v>
       </c>
       <c r="M17" t="n">
         <v>145.7536640594399</v>
@@ -32256,19 +32256,19 @@
         <v>119.3656237644389</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.63861234371782</v>
+        <v>89.63861234371784</v>
       </c>
       <c r="R17" t="n">
-        <v>52.1421118647643</v>
+        <v>52.14211186476431</v>
       </c>
       <c r="S17" t="n">
         <v>18.91530255496495</v>
       </c>
       <c r="T17" t="n">
-        <v>3.633647259873132</v>
+        <v>3.633647259873133</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06640588938660202</v>
+        <v>0.06640588938660204</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4441285396888134</v>
+        <v>0.4441285396888135</v>
       </c>
       <c r="H18" t="n">
-        <v>4.289346685941962</v>
+        <v>4.289346685941963</v>
       </c>
       <c r="I18" t="n">
-        <v>15.29126770419818</v>
+        <v>15.29126770419819</v>
       </c>
       <c r="J18" t="n">
-        <v>41.96040733963478</v>
+        <v>41.96040733963479</v>
       </c>
       <c r="K18" t="n">
-        <v>71.71701949878528</v>
+        <v>71.71701949878529</v>
       </c>
       <c r="L18" t="n">
-        <v>96.43238314602944</v>
+        <v>96.43238314602945</v>
       </c>
       <c r="M18" t="n">
         <v>112.5320427097489</v>
@@ -32332,22 +32332,22 @@
         <v>105.6694775986801</v>
       </c>
       <c r="P18" t="n">
-        <v>84.80907175864719</v>
+        <v>84.80907175864721</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483871</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>27.5749281045388</v>
       </c>
       <c r="S18" t="n">
-        <v>8.249492831500541</v>
+        <v>8.249492831500543</v>
       </c>
       <c r="T18" t="n">
         <v>1.790149684096576</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02921898287426405</v>
+        <v>0.02921898287426406</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32396,16 +32396,16 @@
         <v>26.32461110403721</v>
       </c>
       <c r="K19" t="n">
-        <v>43.25942264492677</v>
+        <v>43.25942264492678</v>
       </c>
       <c r="L19" t="n">
-        <v>55.35716728756907</v>
+        <v>55.35716728756908</v>
       </c>
       <c r="M19" t="n">
         <v>58.36637125715747</v>
       </c>
       <c r="N19" t="n">
-        <v>56.97854940391651</v>
+        <v>56.97854940391652</v>
       </c>
       <c r="O19" t="n">
         <v>52.62891261997824</v>
@@ -32417,10 +32417,10 @@
         <v>31.17860265903135</v>
       </c>
       <c r="R19" t="n">
-        <v>16.74187045397557</v>
+        <v>16.74187045397558</v>
       </c>
       <c r="S19" t="n">
-        <v>6.488913396739015</v>
+        <v>6.488913396739016</v>
       </c>
       <c r="T19" t="n">
         <v>1.590917734203097</v>
@@ -32481,7 +32481,7 @@
         <v>130.9918423672027</v>
       </c>
       <c r="M20" t="n">
-        <v>145.75366405944</v>
+        <v>145.7536640594399</v>
       </c>
       <c r="N20" t="n">
         <v>148.112110724686</v>
@@ -32490,7 +32490,7 @@
         <v>139.8580661923357</v>
       </c>
       <c r="P20" t="n">
-        <v>119.365623764439</v>
+        <v>119.3656237644389</v>
       </c>
       <c r="Q20" t="n">
         <v>89.63861234371784</v>
@@ -32557,13 +32557,13 @@
         <v>71.71701949878529</v>
       </c>
       <c r="L21" t="n">
-        <v>96.43238314602945</v>
+        <v>80.20099647152348</v>
       </c>
       <c r="M21" t="n">
         <v>112.5320427097489</v>
       </c>
       <c r="N21" t="n">
-        <v>95.55544517101629</v>
+        <v>111.7868318455221</v>
       </c>
       <c r="O21" t="n">
         <v>105.6694775986801</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8337331842358763</v>
+        <v>0.8337331842358766</v>
       </c>
       <c r="H23" t="n">
-        <v>8.538469973055671</v>
+        <v>8.538469973055673</v>
       </c>
       <c r="I23" t="n">
         <v>32.14249858525366</v>
       </c>
       <c r="J23" t="n">
-        <v>70.76206184553978</v>
+        <v>70.76206184553979</v>
       </c>
       <c r="K23" t="n">
-        <v>106.0539875342444</v>
+        <v>106.0539875342445</v>
       </c>
       <c r="L23" t="n">
         <v>131.5693494713032</v>
       </c>
       <c r="M23" t="n">
-        <v>146.3962519864579</v>
+        <v>146.396251986458</v>
       </c>
       <c r="N23" t="n">
-        <v>148.7650963961681</v>
+        <v>148.7650963961682</v>
       </c>
       <c r="O23" t="n">
-        <v>140.4746620454226</v>
+        <v>140.4746620454227</v>
       </c>
       <c r="P23" t="n">
         <v>119.8918740595994</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>90.03380439915207</v>
       </c>
       <c r="R23" t="n">
-        <v>52.37199213425691</v>
+        <v>52.37199213425693</v>
       </c>
       <c r="S23" t="n">
-        <v>18.99869493577505</v>
+        <v>18.99869493577506</v>
       </c>
       <c r="T23" t="n">
-        <v>3.649667013992551</v>
+        <v>3.649667013992552</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0666986547388701</v>
+        <v>0.06669865473887011</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4460865806031865</v>
+        <v>0.4460865806031866</v>
       </c>
       <c r="H24" t="n">
-        <v>4.308257238983407</v>
+        <v>4.308257238983408</v>
       </c>
       <c r="I24" t="n">
         <v>15.3586827093641</v>
       </c>
       <c r="J24" t="n">
-        <v>42.1453992665493</v>
+        <v>42.14539926654931</v>
       </c>
       <c r="K24" t="n">
-        <v>72.03320016696279</v>
+        <v>56.32679520234363</v>
       </c>
       <c r="L24" t="n">
-        <v>96.85752707351205</v>
+        <v>96.85752707351207</v>
       </c>
       <c r="M24" t="n">
-        <v>113.0281656203775</v>
+        <v>113.0281656203776</v>
       </c>
       <c r="N24" t="n">
-        <v>96.70972526491794</v>
+        <v>112.666072434677</v>
       </c>
       <c r="O24" t="n">
         <v>106.1353453420222</v>
       </c>
       <c r="P24" t="n">
-        <v>85.18297169430497</v>
+        <v>85.182971694305</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.94256070997868</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>27.69649839920487</v>
       </c>
       <c r="S24" t="n">
-        <v>8.285862582695147</v>
+        <v>8.285862582695149</v>
       </c>
       <c r="T24" t="n">
-        <v>1.798041963045299</v>
+        <v>1.7980419630453</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0293478013554728</v>
+        <v>0.02934780135547281</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,46 +32858,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3739840041582653</v>
+        <v>0.3739840041582654</v>
       </c>
       <c r="H25" t="n">
-        <v>3.325057782425306</v>
+        <v>3.325057782425307</v>
       </c>
       <c r="I25" t="n">
         <v>11.24671896141402</v>
       </c>
       <c r="J25" t="n">
-        <v>26.44066909398935</v>
+        <v>26.44066909398936</v>
       </c>
       <c r="K25" t="n">
-        <v>43.4501415740239</v>
+        <v>43.45014157402391</v>
       </c>
       <c r="L25" t="n">
-        <v>55.60122185458428</v>
+        <v>55.6012218545843</v>
       </c>
       <c r="M25" t="n">
-        <v>58.6236925790997</v>
+        <v>58.62369257909972</v>
       </c>
       <c r="N25" t="n">
-        <v>57.22975219996439</v>
+        <v>57.22975219996441</v>
       </c>
       <c r="O25" t="n">
-        <v>52.86093906047918</v>
+        <v>52.8609390604792</v>
       </c>
       <c r="P25" t="n">
-        <v>45.23166537565054</v>
+        <v>45.23166537565055</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.31606056637983</v>
+        <v>31.31606056637984</v>
       </c>
       <c r="R25" t="n">
-        <v>16.8156807687889</v>
+        <v>16.81568076878891</v>
       </c>
       <c r="S25" t="n">
-        <v>6.517521236103584</v>
+        <v>6.517521236103586</v>
       </c>
       <c r="T25" t="n">
-        <v>1.597931654130769</v>
+        <v>1.59793165413077</v>
       </c>
       <c r="U25" t="n">
         <v>0.02039912749954177</v>
@@ -33034,13 +33034,13 @@
         <v>96.85752707351207</v>
       </c>
       <c r="M27" t="n">
-        <v>97.32176065575831</v>
+        <v>113.0281656203776</v>
       </c>
       <c r="N27" t="n">
         <v>112.666072434677</v>
       </c>
       <c r="O27" t="n">
-        <v>106.1353453420222</v>
+        <v>90.42894037740299</v>
       </c>
       <c r="P27" t="n">
         <v>85.182971694305</v>
@@ -33265,7 +33265,7 @@
         <v>42.14539926654931</v>
       </c>
       <c r="K30" t="n">
-        <v>72.03320016696281</v>
+        <v>56.32679520234374</v>
       </c>
       <c r="L30" t="n">
         <v>96.85752707351207</v>
@@ -33274,7 +33274,7 @@
         <v>113.0281656203776</v>
       </c>
       <c r="N30" t="n">
-        <v>96.70972526491779</v>
+        <v>112.666072434677</v>
       </c>
       <c r="O30" t="n">
         <v>106.1353453420222</v>
@@ -33283,7 +33283,7 @@
         <v>85.182971694305</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.9425607099787</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>27.69649839920487</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8337331842358766</v>
+        <v>0.8337331842358767</v>
       </c>
       <c r="H32" t="n">
-        <v>8.538469973055673</v>
+        <v>8.538469973055674</v>
       </c>
       <c r="I32" t="n">
-        <v>32.14249858525366</v>
+        <v>32.14249858525367</v>
       </c>
       <c r="J32" t="n">
-        <v>70.76206184553979</v>
+        <v>70.7620618455398</v>
       </c>
       <c r="K32" t="n">
         <v>106.0539875342445</v>
@@ -33441,10 +33441,10 @@
         <v>119.8918740595994</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915207</v>
+        <v>90.03380439915209</v>
       </c>
       <c r="R32" t="n">
-        <v>52.37199213425693</v>
+        <v>52.37199213425694</v>
       </c>
       <c r="S32" t="n">
         <v>18.99869493577506</v>
@@ -33499,31 +33499,31 @@
         <v>15.3586827093641</v>
       </c>
       <c r="J33" t="n">
-        <v>42.14539926654931</v>
+        <v>42.14539926654932</v>
       </c>
       <c r="K33" t="n">
-        <v>72.03320016696281</v>
+        <v>56.07685299720372</v>
       </c>
       <c r="L33" t="n">
-        <v>96.85752707351207</v>
+        <v>96.85752707351209</v>
       </c>
       <c r="M33" t="n">
         <v>113.0281656203776</v>
       </c>
       <c r="N33" t="n">
-        <v>96.70972526491784</v>
+        <v>112.666072434677</v>
       </c>
       <c r="O33" t="n">
         <v>106.1353453420222</v>
       </c>
       <c r="P33" t="n">
-        <v>85.182971694305</v>
+        <v>85.18297169430501</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.9425607099787</v>
+        <v>56.94256070997871</v>
       </c>
       <c r="R33" t="n">
-        <v>27.69649839920487</v>
+        <v>27.69649839920488</v>
       </c>
       <c r="S33" t="n">
         <v>8.285862582695149</v>
@@ -33532,7 +33532,7 @@
         <v>1.7980419630453</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02934780135547281</v>
+        <v>0.02934780135547282</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,7 +33572,7 @@
         <v>0.3739840041582654</v>
       </c>
       <c r="H34" t="n">
-        <v>3.325057782425307</v>
+        <v>3.325057782425308</v>
       </c>
       <c r="I34" t="n">
         <v>11.24671896141402</v>
@@ -33581,7 +33581,7 @@
         <v>26.44066909398936</v>
       </c>
       <c r="K34" t="n">
-        <v>43.45014157402391</v>
+        <v>43.45014157402392</v>
       </c>
       <c r="L34" t="n">
         <v>55.6012218545843</v>
@@ -33590,22 +33590,22 @@
         <v>58.62369257909972</v>
       </c>
       <c r="N34" t="n">
-        <v>57.22975219996441</v>
+        <v>57.22975219996442</v>
       </c>
       <c r="O34" t="n">
-        <v>52.8609390604792</v>
+        <v>52.86093906047921</v>
       </c>
       <c r="P34" t="n">
-        <v>45.23166537565055</v>
+        <v>45.23166537565056</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.31606056637984</v>
+        <v>31.31606056637985</v>
       </c>
       <c r="R34" t="n">
         <v>16.81568076878891</v>
       </c>
       <c r="S34" t="n">
-        <v>6.517521236103586</v>
+        <v>6.517521236103587</v>
       </c>
       <c r="T34" t="n">
         <v>1.59793165413077</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8337331842358766</v>
+        <v>0.8337331842358767</v>
       </c>
       <c r="H35" t="n">
-        <v>8.538469973055673</v>
+        <v>8.538469973055674</v>
       </c>
       <c r="I35" t="n">
-        <v>32.14249858525366</v>
+        <v>32.14249858525367</v>
       </c>
       <c r="J35" t="n">
-        <v>70.76206184553979</v>
+        <v>70.7620618455398</v>
       </c>
       <c r="K35" t="n">
         <v>106.0539875342445</v>
@@ -33678,10 +33678,10 @@
         <v>119.8918740595994</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915207</v>
+        <v>90.03380439915209</v>
       </c>
       <c r="R35" t="n">
-        <v>52.37199213425693</v>
+        <v>52.37199213425694</v>
       </c>
       <c r="S35" t="n">
         <v>18.99869493577506</v>
@@ -33736,16 +33736,16 @@
         <v>15.3586827093641</v>
       </c>
       <c r="J36" t="n">
-        <v>42.14539926654931</v>
+        <v>42.14539926654932</v>
       </c>
       <c r="K36" t="n">
         <v>72.03320016696281</v>
       </c>
       <c r="L36" t="n">
-        <v>96.85752707351207</v>
+        <v>96.85752707351209</v>
       </c>
       <c r="M36" t="n">
-        <v>97.32176065575837</v>
+        <v>97.07181845061847</v>
       </c>
       <c r="N36" t="n">
         <v>112.666072434677</v>
@@ -33754,13 +33754,13 @@
         <v>106.1353453420222</v>
       </c>
       <c r="P36" t="n">
-        <v>85.182971694305</v>
+        <v>85.18297169430501</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>56.94256070997871</v>
       </c>
       <c r="R36" t="n">
-        <v>27.69649839920487</v>
+        <v>27.69649839920488</v>
       </c>
       <c r="S36" t="n">
         <v>8.285862582695149</v>
@@ -33769,7 +33769,7 @@
         <v>1.7980419630453</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02934780135547281</v>
+        <v>0.02934780135547282</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,7 +33809,7 @@
         <v>0.3739840041582654</v>
       </c>
       <c r="H37" t="n">
-        <v>3.325057782425307</v>
+        <v>3.325057782425308</v>
       </c>
       <c r="I37" t="n">
         <v>11.24671896141402</v>
@@ -33818,7 +33818,7 @@
         <v>26.44066909398936</v>
       </c>
       <c r="K37" t="n">
-        <v>43.45014157402391</v>
+        <v>43.45014157402392</v>
       </c>
       <c r="L37" t="n">
         <v>55.6012218545843</v>
@@ -33827,22 +33827,22 @@
         <v>58.62369257909972</v>
       </c>
       <c r="N37" t="n">
-        <v>57.22975219996441</v>
+        <v>57.22975219996442</v>
       </c>
       <c r="O37" t="n">
-        <v>52.8609390604792</v>
+        <v>52.86093906047921</v>
       </c>
       <c r="P37" t="n">
-        <v>45.23166537565055</v>
+        <v>45.23166537565056</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.31606056637984</v>
+        <v>31.31606056637985</v>
       </c>
       <c r="R37" t="n">
         <v>16.81568076878891</v>
       </c>
       <c r="S37" t="n">
-        <v>6.517521236103586</v>
+        <v>6.517521236103587</v>
       </c>
       <c r="T37" t="n">
         <v>1.59793165413077</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8337331842358766</v>
+        <v>0.8337331842358767</v>
       </c>
       <c r="H38" t="n">
-        <v>8.538469973055673</v>
+        <v>8.538469973055674</v>
       </c>
       <c r="I38" t="n">
-        <v>32.14249858525366</v>
+        <v>32.14249858525367</v>
       </c>
       <c r="J38" t="n">
-        <v>70.76206184553979</v>
+        <v>70.7620618455398</v>
       </c>
       <c r="K38" t="n">
         <v>106.0539875342445</v>
@@ -33915,10 +33915,10 @@
         <v>119.8918740595994</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915207</v>
+        <v>90.03380439915209</v>
       </c>
       <c r="R38" t="n">
-        <v>52.37199213425693</v>
+        <v>52.37199213425694</v>
       </c>
       <c r="S38" t="n">
         <v>18.99869493577506</v>
@@ -33973,31 +33973,31 @@
         <v>15.3586827093641</v>
       </c>
       <c r="J39" t="n">
-        <v>42.14539926654931</v>
+        <v>42.14539926654932</v>
       </c>
       <c r="K39" t="n">
         <v>72.03320016696281</v>
       </c>
       <c r="L39" t="n">
-        <v>96.85752707351207</v>
+        <v>96.85752707351209</v>
       </c>
       <c r="M39" t="n">
-        <v>113.0281656203776</v>
+        <v>97.07181845061847</v>
       </c>
       <c r="N39" t="n">
-        <v>96.70972526491789</v>
+        <v>112.666072434677</v>
       </c>
       <c r="O39" t="n">
         <v>106.1353453420222</v>
       </c>
       <c r="P39" t="n">
-        <v>85.182971694305</v>
+        <v>85.18297169430501</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.9425607099787</v>
+        <v>56.94256070997871</v>
       </c>
       <c r="R39" t="n">
-        <v>27.69649839920487</v>
+        <v>27.69649839920488</v>
       </c>
       <c r="S39" t="n">
         <v>8.285862582695149</v>
@@ -34006,7 +34006,7 @@
         <v>1.7980419630453</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02934780135547281</v>
+        <v>0.02934780135547282</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,7 +34046,7 @@
         <v>0.3739840041582654</v>
       </c>
       <c r="H40" t="n">
-        <v>3.325057782425307</v>
+        <v>3.325057782425308</v>
       </c>
       <c r="I40" t="n">
         <v>11.24671896141402</v>
@@ -34055,7 +34055,7 @@
         <v>26.44066909398936</v>
       </c>
       <c r="K40" t="n">
-        <v>43.45014157402391</v>
+        <v>43.45014157402392</v>
       </c>
       <c r="L40" t="n">
         <v>55.6012218545843</v>
@@ -34064,22 +34064,22 @@
         <v>58.62369257909972</v>
       </c>
       <c r="N40" t="n">
-        <v>57.22975219996441</v>
+        <v>57.22975219996442</v>
       </c>
       <c r="O40" t="n">
-        <v>52.8609390604792</v>
+        <v>52.86093906047921</v>
       </c>
       <c r="P40" t="n">
-        <v>45.23166537565055</v>
+        <v>45.23166537565056</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.31606056637984</v>
+        <v>31.31606056637985</v>
       </c>
       <c r="R40" t="n">
         <v>16.81568076878891</v>
       </c>
       <c r="S40" t="n">
-        <v>6.517521236103586</v>
+        <v>6.517521236103587</v>
       </c>
       <c r="T40" t="n">
         <v>1.59793165413077</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8337331842358766</v>
+        <v>0.8337331842358767</v>
       </c>
       <c r="H41" t="n">
-        <v>8.538469973055673</v>
+        <v>8.538469973055674</v>
       </c>
       <c r="I41" t="n">
-        <v>32.14249858525366</v>
+        <v>32.14249858525367</v>
       </c>
       <c r="J41" t="n">
-        <v>70.76206184553979</v>
+        <v>70.7620618455398</v>
       </c>
       <c r="K41" t="n">
         <v>106.0539875342445</v>
@@ -34152,10 +34152,10 @@
         <v>119.8918740595994</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915207</v>
+        <v>90.03380439915209</v>
       </c>
       <c r="R41" t="n">
-        <v>52.37199213425693</v>
+        <v>52.37199213425694</v>
       </c>
       <c r="S41" t="n">
         <v>18.99869493577506</v>
@@ -34210,31 +34210,31 @@
         <v>15.3586827093641</v>
       </c>
       <c r="J42" t="n">
-        <v>42.14539926654931</v>
+        <v>42.14539926654932</v>
       </c>
       <c r="K42" t="n">
         <v>72.03320016696281</v>
       </c>
       <c r="L42" t="n">
-        <v>96.85752707351207</v>
+        <v>96.85752707351209</v>
       </c>
       <c r="M42" t="n">
         <v>113.0281656203776</v>
       </c>
       <c r="N42" t="n">
-        <v>96.70972526491789</v>
+        <v>112.666072434677</v>
       </c>
       <c r="O42" t="n">
         <v>106.1353453420222</v>
       </c>
       <c r="P42" t="n">
-        <v>85.182971694305</v>
+        <v>69.47656672968589</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.9425607099787</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>27.69649839920487</v>
+        <v>27.69649839920488</v>
       </c>
       <c r="S42" t="n">
         <v>8.285862582695149</v>
@@ -34243,7 +34243,7 @@
         <v>1.7980419630453</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02934780135547281</v>
+        <v>0.02934780135547282</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,7 +34283,7 @@
         <v>0.3739840041582654</v>
       </c>
       <c r="H43" t="n">
-        <v>3.325057782425307</v>
+        <v>3.325057782425308</v>
       </c>
       <c r="I43" t="n">
         <v>11.24671896141402</v>
@@ -34292,7 +34292,7 @@
         <v>26.44066909398936</v>
       </c>
       <c r="K43" t="n">
-        <v>43.45014157402391</v>
+        <v>43.45014157402392</v>
       </c>
       <c r="L43" t="n">
         <v>55.6012218545843</v>
@@ -34301,22 +34301,22 @@
         <v>58.62369257909972</v>
       </c>
       <c r="N43" t="n">
-        <v>57.22975219996441</v>
+        <v>57.22975219996442</v>
       </c>
       <c r="O43" t="n">
-        <v>52.8609390604792</v>
+        <v>52.86093906047921</v>
       </c>
       <c r="P43" t="n">
-        <v>45.23166537565055</v>
+        <v>45.23166537565056</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.31606056637984</v>
+        <v>31.31606056637985</v>
       </c>
       <c r="R43" t="n">
         <v>16.81568076878891</v>
       </c>
       <c r="S43" t="n">
-        <v>6.517521236103586</v>
+        <v>6.517521236103587</v>
       </c>
       <c r="T43" t="n">
         <v>1.59793165413077</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8639136521398887</v>
+        <v>0.8337331842358767</v>
       </c>
       <c r="H44" t="n">
-        <v>8.847555689977638</v>
+        <v>8.538469973055674</v>
       </c>
       <c r="I44" t="n">
-        <v>33.30603107412309</v>
+        <v>32.14249858525367</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>70.7620618455398</v>
       </c>
       <c r="K44" t="n">
-        <v>109.8930562283895</v>
+        <v>106.0539875342445</v>
       </c>
       <c r="L44" t="n">
-        <v>136.3320536600656</v>
+        <v>131.5693494713032</v>
       </c>
       <c r="M44" t="n">
-        <v>151.6956780713084</v>
+        <v>146.396251986458</v>
       </c>
       <c r="N44" t="n">
-        <v>154.1502727354508</v>
+        <v>148.7650963961682</v>
       </c>
       <c r="O44" t="n">
-        <v>145.5597313569848</v>
+        <v>140.4746620454227</v>
       </c>
       <c r="P44" t="n">
-        <v>124.2318630697813</v>
+        <v>119.8918740595994</v>
       </c>
       <c r="Q44" t="n">
-        <v>93.29295540252147</v>
+        <v>90.03380439915209</v>
       </c>
       <c r="R44" t="n">
-        <v>54.26781595123234</v>
+        <v>52.37199213425694</v>
       </c>
       <c r="S44" t="n">
-        <v>19.68643234813774</v>
+        <v>18.99869493577506</v>
       </c>
       <c r="T44" t="n">
-        <v>3.781782012242365</v>
+        <v>3.649667013992552</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06911309217119109</v>
+        <v>0.06669865473887011</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4622345545388097</v>
+        <v>0.4460865806031866</v>
       </c>
       <c r="H45" t="n">
-        <v>4.464212671466926</v>
+        <v>4.308257238983408</v>
       </c>
       <c r="I45" t="n">
-        <v>15.91465461898972</v>
+        <v>15.3586827093641</v>
       </c>
       <c r="J45" t="n">
-        <v>43.67102868123027</v>
+        <v>42.14539926654932</v>
       </c>
       <c r="K45" t="n">
-        <v>63.90947051027076</v>
+        <v>72.03320016696281</v>
       </c>
       <c r="L45" t="n">
-        <v>100.3636913265078</v>
+        <v>96.85752707351209</v>
       </c>
       <c r="M45" t="n">
-        <v>117.1196939285396</v>
+        <v>113.0281656203776</v>
       </c>
       <c r="N45" t="n">
-        <v>120.2195037263021</v>
+        <v>96.70972526491792</v>
       </c>
       <c r="O45" t="n">
-        <v>109.9773591231</v>
+        <v>106.1353453420222</v>
       </c>
       <c r="P45" t="n">
-        <v>88.26652647153816</v>
+        <v>85.18297169430501</v>
       </c>
       <c r="Q45" t="n">
-        <v>59.00383541797157</v>
+        <v>56.94256070997871</v>
       </c>
       <c r="R45" t="n">
-        <v>28.69908927215523</v>
+        <v>27.69649839920488</v>
       </c>
       <c r="S45" t="n">
-        <v>8.58580411610464</v>
+        <v>8.285862582695149</v>
       </c>
       <c r="T45" t="n">
-        <v>1.863129629917395</v>
+        <v>1.7980419630453</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03041016806176381</v>
+        <v>0.02934780135547282</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3875219230602905</v>
+        <v>0.3739840041582654</v>
       </c>
       <c r="H46" t="n">
-        <v>3.445422188663313</v>
+        <v>3.325057782425308</v>
       </c>
       <c r="I46" t="n">
-        <v>11.65384110439492</v>
+        <v>11.24671896141402</v>
       </c>
       <c r="J46" t="n">
-        <v>27.39779996036254</v>
+        <v>26.44066909398936</v>
       </c>
       <c r="K46" t="n">
-        <v>45.0230016064592</v>
+        <v>43.45014157402392</v>
       </c>
       <c r="L46" t="n">
-        <v>57.61394117934538</v>
+        <v>55.6012218545843</v>
       </c>
       <c r="M46" t="n">
-        <v>60.74582290298716</v>
+        <v>58.62369257909972</v>
       </c>
       <c r="N46" t="n">
-        <v>59.30142300794432</v>
+        <v>57.22975219996442</v>
       </c>
       <c r="O46" t="n">
-        <v>54.77446236128544</v>
+        <v>52.86093906047921</v>
       </c>
       <c r="P46" t="n">
-        <v>46.86901513085548</v>
+        <v>45.23166537565056</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.44967666643942</v>
+        <v>31.31606056637985</v>
       </c>
       <c r="R46" t="n">
-        <v>17.42439483141997</v>
+        <v>16.81568076878891</v>
       </c>
       <c r="S46" t="n">
-        <v>6.753450240968879</v>
+        <v>6.517521236103587</v>
       </c>
       <c r="T46" t="n">
-        <v>1.655775489439423</v>
+        <v>1.59793165413077</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02113755943965223</v>
+        <v>0.02039912749954177</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898967</v>
       </c>
       <c r="L11" t="n">
-        <v>22.08482716139557</v>
+        <v>22.08482716139561</v>
       </c>
       <c r="M11" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N11" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O11" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896039</v>
       </c>
       <c r="P11" t="n">
-        <v>13.48588282609616</v>
+        <v>13.48588282609619</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>8.543005244543217</v>
+        <v>8.543005244543245</v>
       </c>
       <c r="L12" t="n">
-        <v>30.43725529618024</v>
+        <v>30.43725529618027</v>
       </c>
       <c r="M12" t="n">
-        <v>37.52930446208636</v>
+        <v>35.00036905751713</v>
       </c>
       <c r="N12" t="n">
-        <v>35.00036905751704</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O12" t="n">
-        <v>37.0909482541969</v>
+        <v>37.09094825419692</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898967</v>
       </c>
       <c r="L14" t="n">
-        <v>22.08482716139557</v>
+        <v>22.08482716139561</v>
       </c>
       <c r="M14" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N14" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O14" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896039</v>
       </c>
       <c r="P14" t="n">
-        <v>13.48588282609616</v>
+        <v>13.48588282609619</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>8.543005244543217</v>
+        <v>8.543005244543245</v>
       </c>
       <c r="L15" t="n">
-        <v>30.43725529618024</v>
+        <v>30.43725529618027</v>
       </c>
       <c r="M15" t="n">
-        <v>37.52930446208636</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N15" t="n">
-        <v>13.14059473274092</v>
+        <v>35.00036905751713</v>
       </c>
       <c r="O15" t="n">
-        <v>37.0909482541969</v>
+        <v>37.09094825419692</v>
       </c>
       <c r="P15" t="n">
-        <v>21.85977432477611</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>16.45208722754521</v>
+        <v>16.45208722754522</v>
       </c>
       <c r="L17" t="n">
-        <v>35.5064443043578</v>
+        <v>35.50644430435783</v>
       </c>
       <c r="M17" t="n">
         <v>52.46343960239447</v>
       </c>
       <c r="N17" t="n">
-        <v>55.19981996806665</v>
+        <v>55.19981996806668</v>
       </c>
       <c r="O17" t="n">
         <v>46.66829056655256</v>
       </c>
       <c r="P17" t="n">
-        <v>25.71626048355476</v>
+        <v>25.71626048355478</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>15.89123671416989</v>
+        <v>15.8912367141699</v>
       </c>
       <c r="L18" t="n">
-        <v>40.31785933518039</v>
+        <v>40.3178593351804</v>
       </c>
       <c r="M18" t="n">
-        <v>54.96775897133147</v>
+        <v>54.96775897133148</v>
       </c>
       <c r="N18" t="n">
         <v>42.36205177726617</v>
       </c>
       <c r="O18" t="n">
-        <v>47.91799859868009</v>
+        <v>47.91799859868011</v>
       </c>
       <c r="P18" t="n">
-        <v>30.54943675584344</v>
+        <v>30.54943675584346</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36047,13 +36047,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7288733936675627</v>
+        <v>0.7288733936675698</v>
       </c>
       <c r="M19" t="n">
-        <v>2.101428758377423</v>
+        <v>2.10142875837743</v>
       </c>
       <c r="N19" t="n">
-        <v>5.265903895497068</v>
+        <v>5.265903895497075</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>35.50644430435783</v>
       </c>
       <c r="M20" t="n">
-        <v>52.4634396023945</v>
+        <v>52.46343960239447</v>
       </c>
       <c r="N20" t="n">
         <v>55.19981996806668</v>
@@ -36138,7 +36138,7 @@
         <v>46.66829056655256</v>
       </c>
       <c r="P20" t="n">
-        <v>25.71626048355479</v>
+        <v>25.71626048355478</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>15.8912367141699</v>
       </c>
       <c r="L21" t="n">
-        <v>40.3178593351804</v>
+        <v>24.08647266067443</v>
       </c>
       <c r="M21" t="n">
         <v>54.96775897133148</v>
       </c>
       <c r="N21" t="n">
-        <v>42.36205177726629</v>
+        <v>58.59343845177214</v>
       </c>
       <c r="O21" t="n">
         <v>47.91799859868011</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>16.91759786102732</v>
+        <v>16.91759786102735</v>
       </c>
       <c r="L23" t="n">
-        <v>36.08395140845833</v>
+        <v>36.08395140845839</v>
       </c>
       <c r="M23" t="n">
-        <v>53.10602752941246</v>
+        <v>53.10602752941251</v>
       </c>
       <c r="N23" t="n">
-        <v>55.85280563954881</v>
+        <v>55.85280563954883</v>
       </c>
       <c r="O23" t="n">
-        <v>47.28488641963948</v>
+        <v>47.28488641963953</v>
       </c>
       <c r="P23" t="n">
-        <v>26.24251077871524</v>
+        <v>26.24251077871527</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>16.20741738234739</v>
+        <v>0.5010124177282346</v>
       </c>
       <c r="L24" t="n">
-        <v>40.743003262663</v>
+        <v>40.74300326266302</v>
       </c>
       <c r="M24" t="n">
-        <v>55.46388188196011</v>
+        <v>55.46388188196014</v>
       </c>
       <c r="N24" t="n">
-        <v>43.51633187116794</v>
+        <v>59.472679040927</v>
       </c>
       <c r="O24" t="n">
-        <v>48.38386634202217</v>
+        <v>48.38386634202219</v>
       </c>
       <c r="P24" t="n">
-        <v>30.92333669150122</v>
+        <v>30.92333669150125</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2499422051399591</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,13 +36521,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9729279606827745</v>
+        <v>0.9729279606827888</v>
       </c>
       <c r="M25" t="n">
-        <v>2.358750080319659</v>
+        <v>2.358750080319673</v>
       </c>
       <c r="N25" t="n">
-        <v>5.517106691544953</v>
+        <v>5.517106691544967</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>40.74300326266302</v>
       </c>
       <c r="M27" t="n">
-        <v>39.7574769173409</v>
+        <v>55.46388188196014</v>
       </c>
       <c r="N27" t="n">
-        <v>59.47267904092698</v>
+        <v>59.472679040927</v>
       </c>
       <c r="O27" t="n">
-        <v>48.38386634202219</v>
+        <v>32.677461377403</v>
       </c>
       <c r="P27" t="n">
         <v>30.92333669150125</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>16.20741738234742</v>
+        <v>0.5010124177283458</v>
       </c>
       <c r="L30" t="n">
         <v>40.74300326266302</v>
@@ -36922,7 +36922,7 @@
         <v>55.46388188196014</v>
       </c>
       <c r="N30" t="n">
-        <v>43.5163318711678</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="O30" t="n">
         <v>48.38386634202219</v>
@@ -36931,7 +36931,7 @@
         <v>30.92333669150125</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2499422051399804</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>16.91759786102735</v>
+        <v>16.91759786102736</v>
       </c>
       <c r="L32" t="n">
         <v>36.08395140845839</v>
       </c>
       <c r="M32" t="n">
-        <v>53.10602752941251</v>
+        <v>53.10602752941254</v>
       </c>
       <c r="N32" t="n">
-        <v>55.85280563954883</v>
+        <v>55.85280563954886</v>
       </c>
       <c r="O32" t="n">
-        <v>47.28488641963953</v>
+        <v>47.28488641963956</v>
       </c>
       <c r="P32" t="n">
-        <v>26.24251077871527</v>
+        <v>26.24251077871529</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>16.20741738234742</v>
+        <v>0.25107021258833</v>
       </c>
       <c r="L33" t="n">
-        <v>40.74300326266302</v>
+        <v>40.74300326266304</v>
       </c>
       <c r="M33" t="n">
-        <v>55.46388188196014</v>
+        <v>55.46388188196016</v>
       </c>
       <c r="N33" t="n">
-        <v>43.51633187116784</v>
+        <v>59.47267904092704</v>
       </c>
       <c r="O33" t="n">
-        <v>48.38386634202219</v>
+        <v>48.38386634202221</v>
       </c>
       <c r="P33" t="n">
-        <v>30.92333669150125</v>
+        <v>30.92333669150126</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2499422051399804</v>
+        <v>0.2499422051399875</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,13 +37232,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9729279606827888</v>
+        <v>0.9729279606827959</v>
       </c>
       <c r="M34" t="n">
-        <v>2.358750080319673</v>
+        <v>2.35875008031968</v>
       </c>
       <c r="N34" t="n">
-        <v>5.517106691544967</v>
+        <v>5.517106691544974</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>16.91759786102735</v>
+        <v>16.91759786102736</v>
       </c>
       <c r="L35" t="n">
         <v>36.08395140845839</v>
       </c>
       <c r="M35" t="n">
-        <v>53.10602752941251</v>
+        <v>53.10602752941254</v>
       </c>
       <c r="N35" t="n">
-        <v>55.85280563954883</v>
+        <v>55.85280563954886</v>
       </c>
       <c r="O35" t="n">
-        <v>47.28488641963953</v>
+        <v>47.28488641963956</v>
       </c>
       <c r="P35" t="n">
-        <v>26.24251077871527</v>
+        <v>26.24251077871529</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>16.20741738234742</v>
       </c>
       <c r="L36" t="n">
-        <v>40.74300326266302</v>
+        <v>40.74300326266304</v>
       </c>
       <c r="M36" t="n">
-        <v>39.75747691734095</v>
+        <v>39.50753471220104</v>
       </c>
       <c r="N36" t="n">
-        <v>59.472679040927</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="O36" t="n">
-        <v>48.38386634202219</v>
+        <v>48.38386634202221</v>
       </c>
       <c r="P36" t="n">
-        <v>30.92333669150125</v>
+        <v>30.92333669150126</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.2499422051399875</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,13 +37469,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9729279606827888</v>
+        <v>0.9729279606827959</v>
       </c>
       <c r="M37" t="n">
-        <v>2.358750080319673</v>
+        <v>2.35875008031968</v>
       </c>
       <c r="N37" t="n">
-        <v>5.517106691544967</v>
+        <v>5.517106691544974</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>16.91759786102735</v>
+        <v>16.91759786102736</v>
       </c>
       <c r="L38" t="n">
         <v>36.08395140845839</v>
       </c>
       <c r="M38" t="n">
-        <v>53.10602752941251</v>
+        <v>53.10602752941254</v>
       </c>
       <c r="N38" t="n">
-        <v>55.85280563954883</v>
+        <v>55.85280563954886</v>
       </c>
       <c r="O38" t="n">
-        <v>47.28488641963953</v>
+        <v>47.28488641963956</v>
       </c>
       <c r="P38" t="n">
-        <v>26.24251077871527</v>
+        <v>26.24251077871529</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>16.20741738234742</v>
       </c>
       <c r="L39" t="n">
-        <v>40.74300326266302</v>
+        <v>40.74300326266304</v>
       </c>
       <c r="M39" t="n">
-        <v>55.46388188196014</v>
+        <v>39.50753471220104</v>
       </c>
       <c r="N39" t="n">
-        <v>43.5163318711679</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="O39" t="n">
-        <v>48.38386634202219</v>
+        <v>48.38386634202221</v>
       </c>
       <c r="P39" t="n">
-        <v>30.92333669150125</v>
+        <v>30.92333669150126</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.2499422051399804</v>
+        <v>0.2499422051399875</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,13 +37706,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9729279606827888</v>
+        <v>0.9729279606827959</v>
       </c>
       <c r="M40" t="n">
-        <v>2.358750080319673</v>
+        <v>2.35875008031968</v>
       </c>
       <c r="N40" t="n">
-        <v>5.517106691544967</v>
+        <v>5.517106691544974</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>16.91759786102735</v>
+        <v>16.91759786102736</v>
       </c>
       <c r="L41" t="n">
         <v>36.08395140845839</v>
       </c>
       <c r="M41" t="n">
-        <v>53.10602752941251</v>
+        <v>53.10602752941254</v>
       </c>
       <c r="N41" t="n">
-        <v>55.85280563954883</v>
+        <v>55.85280563954886</v>
       </c>
       <c r="O41" t="n">
-        <v>47.28488641963953</v>
+        <v>47.28488641963956</v>
       </c>
       <c r="P41" t="n">
-        <v>26.24251077871527</v>
+        <v>26.24251077871529</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>16.20741738234742</v>
       </c>
       <c r="L42" t="n">
-        <v>40.74300326266302</v>
+        <v>40.74300326266304</v>
       </c>
       <c r="M42" t="n">
-        <v>55.46388188196014</v>
+        <v>55.46388188196016</v>
       </c>
       <c r="N42" t="n">
-        <v>43.5163318711679</v>
+        <v>59.47267904092703</v>
       </c>
       <c r="O42" t="n">
-        <v>48.38386634202219</v>
+        <v>48.38386634202221</v>
       </c>
       <c r="P42" t="n">
-        <v>30.92333669150125</v>
+        <v>15.21693172688213</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.2499422051399804</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,13 +37943,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9729279606827888</v>
+        <v>0.9729279606827959</v>
       </c>
       <c r="M43" t="n">
-        <v>2.358750080319673</v>
+        <v>2.35875008031968</v>
       </c>
       <c r="N43" t="n">
-        <v>5.517106691544967</v>
+        <v>5.517106691544974</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>20.75666655517233</v>
+        <v>16.91759786102736</v>
       </c>
       <c r="L44" t="n">
-        <v>40.84665559722079</v>
+        <v>36.08395140845839</v>
       </c>
       <c r="M44" t="n">
-        <v>58.4054536142629</v>
+        <v>53.10602752941254</v>
       </c>
       <c r="N44" t="n">
-        <v>61.23798197883148</v>
+        <v>55.85280563954886</v>
       </c>
       <c r="O44" t="n">
-        <v>52.36995573120167</v>
+        <v>47.28488641963956</v>
       </c>
       <c r="P44" t="n">
-        <v>30.58249978889711</v>
+        <v>26.24251077871529</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.259151003369425</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>8.083687725655372</v>
+        <v>16.20741738234742</v>
       </c>
       <c r="L45" t="n">
-        <v>44.24916751565874</v>
+        <v>40.74300326266304</v>
       </c>
       <c r="M45" t="n">
-        <v>59.5554101901222</v>
+        <v>55.46388188196016</v>
       </c>
       <c r="N45" t="n">
-        <v>67.02611033255209</v>
+        <v>43.51633187116793</v>
       </c>
       <c r="O45" t="n">
-        <v>52.22588012310005</v>
+        <v>48.38386634202221</v>
       </c>
       <c r="P45" t="n">
-        <v>34.00689146873441</v>
+        <v>30.92333669150126</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.311216913132853</v>
+        <v>0.2499422051399875</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,13 +38180,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.985647285443875</v>
+        <v>0.9729279606827959</v>
       </c>
       <c r="M46" t="n">
-        <v>4.48088040420712</v>
+        <v>2.35875008031968</v>
       </c>
       <c r="N46" t="n">
-        <v>7.588777499524873</v>
+        <v>5.517106691544974</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
